--- a/df_claims.xlsx
+++ b/df_claims.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Quint/Documents/Quint/Working Talent/WT_eindopdracht/WT_Car/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72CC23E-D0EC-C64A-8CA5-248141287EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AB2CF4-CCE0-3A47-9EE0-6289FA64223B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,10 +611,15 @@
   <dimension ref="A1:V160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+      <selection activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">

--- a/df_claims.xlsx
+++ b/df_claims.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Quint/Documents/Quint/Working Talent/WT_eindopdracht/WT_Car/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AB2CF4-CCE0-3A47-9EE0-6289FA64223B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30C814F-A1F9-B84C-840A-23FB071B8B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8660" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -611,11 +611,12 @@
   <dimension ref="A1:V160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD65"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>

--- a/df_claims.xlsx
+++ b/df_claims.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Quint/Documents/Quint/Working Talent/WT_eindopdracht/WT_Car/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30C814F-A1F9-B84C-840A-23FB071B8B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F278F46E-B923-4D4A-961D-1AA30A72171D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -610,13 +610,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
     <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>

--- a/df_claims.xlsx
+++ b/df_claims.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Quint/Documents/Quint/Working Talent/WT_eindopdracht/WT_Car/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F278F46E-B923-4D4A-961D-1AA30A72171D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F7F96F-37CE-4C4A-AD0E-2CA71D9B4CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="86">
   <si>
     <t>State</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Total liablity inc losses</t>
   </si>
   <si>
-    <t>Total liablity loss ratio</t>
-  </si>
-  <si>
     <t>Bodily injury premiums</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
   </si>
   <si>
     <t>Bodily injury inc claims</t>
-  </si>
-  <si>
-    <t>Boduly injury loss ratio</t>
   </si>
   <si>
     <t>Comprehensive premiums</t>
@@ -86,6 +80,36 @@
   </si>
   <si>
     <t>Insured drivers</t>
+  </si>
+  <si>
+    <t>Average_tlpr</t>
+  </si>
+  <si>
+    <t>Average_blpr</t>
+  </si>
+  <si>
+    <t>Gross profit per driver</t>
+  </si>
+  <si>
+    <t>Average_gppd</t>
+  </si>
+  <si>
+    <t>Bodily claims per inc loss</t>
+  </si>
+  <si>
+    <t>Average_cpil</t>
+  </si>
+  <si>
+    <t>Rating_Total_Liability_Profit_Ratio</t>
+  </si>
+  <si>
+    <t>Rating_Bodily_Liability_Profit_Ratio</t>
+  </si>
+  <si>
+    <t>Rating_Gross_Profit_Per_Driver</t>
+  </si>
+  <si>
+    <t>Rating_Bodily_Cost_Per_Claim</t>
   </si>
   <si>
     <t>Alabama</t>
@@ -220,6 +244,9 @@
     <t>Texas</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>Utah</t>
   </si>
   <si>
@@ -245,6 +272,12 @@
   </si>
   <si>
     <t>CW w/o Texas</t>
+  </si>
+  <si>
+    <t>Total liablity loss ratio</t>
+  </si>
+  <si>
+    <t>Boduly injury loss ratio</t>
   </si>
 </sst>
 </file>
@@ -608,24 +641,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V160"/>
+  <dimension ref="A1:AF160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="29" max="29" width="25.1640625" customWidth="1"/>
+    <col min="32" max="32" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,63 +669,93 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>2019</v>
@@ -757,10 +817,40 @@
       <c r="V2">
         <v>3201257.5874999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W2">
+        <v>23.86333333333333</v>
+      </c>
+      <c r="X2">
+        <v>21.92</v>
+      </c>
+      <c r="Y2">
+        <v>151.52080916387669</v>
+      </c>
+      <c r="Z2">
+        <v>138.30965120151649</v>
+      </c>
+      <c r="AA2">
+        <v>5.6363615018949968E-5</v>
+      </c>
+      <c r="AB2">
+        <v>5.6796777480711061E-5</v>
+      </c>
+      <c r="AC2">
+        <v>3</v>
+      </c>
+      <c r="AD2">
+        <v>2</v>
+      </c>
+      <c r="AE2">
+        <v>3</v>
+      </c>
+      <c r="AF2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>2018</v>
@@ -822,10 +912,40 @@
       <c r="V3">
         <v>3201257.5874999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W3">
+        <v>23.86333333333333</v>
+      </c>
+      <c r="X3">
+        <v>21.92</v>
+      </c>
+      <c r="Y3">
+        <v>149.8152838036811</v>
+      </c>
+      <c r="Z3">
+        <v>138.30965120151649</v>
+      </c>
+      <c r="AA3">
+        <v>5.6239808850594401E-5</v>
+      </c>
+      <c r="AB3">
+        <v>5.6796777480711061E-5</v>
+      </c>
+      <c r="AC3">
+        <v>3</v>
+      </c>
+      <c r="AD3">
+        <v>2</v>
+      </c>
+      <c r="AE3">
+        <v>3</v>
+      </c>
+      <c r="AF3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>2017</v>
@@ -887,10 +1007,40 @@
       <c r="V4">
         <v>3201257.5874999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W4">
+        <v>23.86333333333333</v>
+      </c>
+      <c r="X4">
+        <v>21.92</v>
+      </c>
+      <c r="Y4">
+        <v>113.5928606369918</v>
+      </c>
+      <c r="Z4">
+        <v>138.30965120151649</v>
+      </c>
+      <c r="AA4">
+        <v>5.7786908572588813E-5</v>
+      </c>
+      <c r="AB4">
+        <v>5.6796777480711061E-5</v>
+      </c>
+      <c r="AC4">
+        <v>3</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <v>3</v>
+      </c>
+      <c r="AF4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>2019</v>
@@ -952,10 +1102,40 @@
       <c r="V5">
         <v>449124.25099999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W5">
+        <v>20.760000000000009</v>
+      </c>
+      <c r="X5">
+        <v>22.54666666666667</v>
+      </c>
+      <c r="Y5">
+        <v>142.10718494468469</v>
+      </c>
+      <c r="Z5">
+        <v>123.53688140819931</v>
+      </c>
+      <c r="AA5">
+        <v>3.4695364973335292E-5</v>
+      </c>
+      <c r="AB5">
+        <v>4.0242062019443582E-5</v>
+      </c>
+      <c r="AC5">
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
+      </c>
+      <c r="AE5">
+        <v>2</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>2018</v>
@@ -1017,10 +1197,40 @@
       <c r="V6">
         <v>449124.25099999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W6">
+        <v>20.760000000000009</v>
+      </c>
+      <c r="X6">
+        <v>22.54666666666667</v>
+      </c>
+      <c r="Y6">
+        <v>130.61379088166851</v>
+      </c>
+      <c r="Z6">
+        <v>123.53688140819931</v>
+      </c>
+      <c r="AA6">
+        <v>4.3775462711349983E-5</v>
+      </c>
+      <c r="AB6">
+        <v>4.0242062019443582E-5</v>
+      </c>
+      <c r="AC6">
+        <v>2</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
+      </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>2017</v>
@@ -1082,10 +1292,40 @@
       <c r="V7">
         <v>449124.25099999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7">
+        <v>20.760000000000009</v>
+      </c>
+      <c r="X7">
+        <v>22.54666666666667</v>
+      </c>
+      <c r="Y7">
+        <v>97.889668398244652</v>
+      </c>
+      <c r="Z7">
+        <v>123.53688140819931</v>
+      </c>
+      <c r="AA7">
+        <v>4.2255358373645498E-5</v>
+      </c>
+      <c r="AB7">
+        <v>4.0242062019443582E-5</v>
+      </c>
+      <c r="AC7">
+        <v>2</v>
+      </c>
+      <c r="AD7">
+        <v>2</v>
+      </c>
+      <c r="AE7">
+        <v>2</v>
+      </c>
+      <c r="AF7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>2019</v>
@@ -1147,10 +1387,40 @@
       <c r="V8">
         <v>4608421.7760000005</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8">
+        <v>23.08</v>
+      </c>
+      <c r="X8">
+        <v>23.40666666666667</v>
+      </c>
+      <c r="Y8">
+        <v>176.30059996487611</v>
+      </c>
+      <c r="Z8">
+        <v>145.25061511354741</v>
+      </c>
+      <c r="AA8">
+        <v>5.8783657861260492E-5</v>
+      </c>
+      <c r="AB8">
+        <v>6.0464858787224062E-5</v>
+      </c>
+      <c r="AC8">
+        <v>3</v>
+      </c>
+      <c r="AD8">
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <v>3</v>
+      </c>
+      <c r="AF8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>2018</v>
@@ -1212,10 +1482,40 @@
       <c r="V9">
         <v>4608421.7760000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9">
+        <v>23.08</v>
+      </c>
+      <c r="X9">
+        <v>23.40666666666667</v>
+      </c>
+      <c r="Y9">
+        <v>151.77372862062441</v>
+      </c>
+      <c r="Z9">
+        <v>145.25061511354741</v>
+      </c>
+      <c r="AA9">
+        <v>6.007402406471058E-5</v>
+      </c>
+      <c r="AB9">
+        <v>6.0464858787224062E-5</v>
+      </c>
+      <c r="AC9">
+        <v>3</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <v>3</v>
+      </c>
+      <c r="AF9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>2017</v>
@@ -1277,10 +1577,40 @@
       <c r="V10">
         <v>4608421.7760000005</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10">
+        <v>23.08</v>
+      </c>
+      <c r="X10">
+        <v>23.40666666666667</v>
+      </c>
+      <c r="Y10">
+        <v>107.6775167551417</v>
+      </c>
+      <c r="Z10">
+        <v>145.25061511354741</v>
+      </c>
+      <c r="AA10">
+        <v>6.2536894435701108E-5</v>
+      </c>
+      <c r="AB10">
+        <v>6.0464858787224062E-5</v>
+      </c>
+      <c r="AC10">
+        <v>3</v>
+      </c>
+      <c r="AD10">
+        <v>2</v>
+      </c>
+      <c r="AE10">
+        <v>3</v>
+      </c>
+      <c r="AF10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>2019</v>
@@ -1342,10 +1672,40 @@
       <c r="V11">
         <v>1841088.993</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11">
+        <v>27.86</v>
+      </c>
+      <c r="X11">
+        <v>28.683333333333341</v>
+      </c>
+      <c r="Y11">
+        <v>154.5541720589712</v>
+      </c>
+      <c r="Z11">
+        <v>150.4959923466339</v>
+      </c>
+      <c r="AA11">
+        <v>8.0409945186775942E-5</v>
+      </c>
+      <c r="AB11">
+        <v>8.2997112006709482E-5</v>
+      </c>
+      <c r="AC11">
+        <v>4</v>
+      </c>
+      <c r="AD11">
+        <v>3</v>
+      </c>
+      <c r="AE11">
+        <v>3</v>
+      </c>
+      <c r="AF11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>2018</v>
@@ -1407,10 +1767,40 @@
       <c r="V12">
         <v>1841088.993</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12">
+        <v>27.86</v>
+      </c>
+      <c r="X12">
+        <v>28.683333333333341</v>
+      </c>
+      <c r="Y12">
+        <v>166.48224347947101</v>
+      </c>
+      <c r="Z12">
+        <v>150.4959923466339</v>
+      </c>
+      <c r="AA12">
+        <v>8.4719359794912003E-5</v>
+      </c>
+      <c r="AB12">
+        <v>8.2997112006709482E-5</v>
+      </c>
+      <c r="AC12">
+        <v>4</v>
+      </c>
+      <c r="AD12">
+        <v>3</v>
+      </c>
+      <c r="AE12">
+        <v>3</v>
+      </c>
+      <c r="AF12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>2017</v>
@@ -1472,10 +1862,40 @@
       <c r="V13">
         <v>1841088.993</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13">
+        <v>27.86</v>
+      </c>
+      <c r="X13">
+        <v>28.683333333333341</v>
+      </c>
+      <c r="Y13">
+        <v>130.45156150145971</v>
+      </c>
+      <c r="Z13">
+        <v>150.4959923466339</v>
+      </c>
+      <c r="AA13">
+        <v>8.3862031038440526E-5</v>
+      </c>
+      <c r="AB13">
+        <v>8.2997112006709482E-5</v>
+      </c>
+      <c r="AC13">
+        <v>4</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+      <c r="AE13">
+        <v>3</v>
+      </c>
+      <c r="AF13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>2019</v>
@@ -1537,10 +1957,40 @@
       <c r="V14">
         <v>22441493.844000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14">
+        <v>29.236666666666661</v>
+      </c>
+      <c r="X14">
+        <v>28.42</v>
+      </c>
+      <c r="Y14">
+        <v>237.7121169866449</v>
+      </c>
+      <c r="Z14">
+        <v>212.21123424781581</v>
+      </c>
+      <c r="AA14">
+        <v>4.4906290860303697E-5</v>
+      </c>
+      <c r="AB14">
+        <v>4.8525323321886273E-5</v>
+      </c>
+      <c r="AC14">
+        <v>4</v>
+      </c>
+      <c r="AD14">
+        <v>3</v>
+      </c>
+      <c r="AE14">
+        <v>5</v>
+      </c>
+      <c r="AF14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>2018</v>
@@ -1602,10 +2052,40 @@
       <c r="V15">
         <v>22441493.844000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15">
+        <v>29.236666666666661</v>
+      </c>
+      <c r="X15">
+        <v>28.42</v>
+      </c>
+      <c r="Y15">
+        <v>226.59625403500391</v>
+      </c>
+      <c r="Z15">
+        <v>212.21123424781581</v>
+      </c>
+      <c r="AA15">
+        <v>4.894406422108352E-5</v>
+      </c>
+      <c r="AB15">
+        <v>4.8525323321886273E-5</v>
+      </c>
+      <c r="AC15">
+        <v>4</v>
+      </c>
+      <c r="AD15">
+        <v>3</v>
+      </c>
+      <c r="AE15">
+        <v>5</v>
+      </c>
+      <c r="AF15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>2017</v>
@@ -1667,10 +2147,40 @@
       <c r="V16">
         <v>22441493.844000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W16">
+        <v>29.236666666666661</v>
+      </c>
+      <c r="X16">
+        <v>28.42</v>
+      </c>
+      <c r="Y16">
+        <v>172.32533172179851</v>
+      </c>
+      <c r="Z16">
+        <v>212.21123424781581</v>
+      </c>
+      <c r="AA16">
+        <v>5.1725614884271589E-5</v>
+      </c>
+      <c r="AB16">
+        <v>4.8525323321886273E-5</v>
+      </c>
+      <c r="AC16">
+        <v>4</v>
+      </c>
+      <c r="AD16">
+        <v>3</v>
+      </c>
+      <c r="AE16">
+        <v>5</v>
+      </c>
+      <c r="AF16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>2019</v>
@@ -1732,10 +2242,40 @@
       <c r="V17">
         <v>3515756.1434999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W17">
+        <v>20.77333333333333</v>
+      </c>
+      <c r="X17">
+        <v>20.446666666666669</v>
+      </c>
+      <c r="Y17">
+        <v>183.4373468115366</v>
+      </c>
+      <c r="Z17">
+        <v>161.5907403163726</v>
+      </c>
+      <c r="AA17">
+        <v>3.6481235005382652E-5</v>
+      </c>
+      <c r="AB17">
+        <v>3.7513379674034601E-5</v>
+      </c>
+      <c r="AC17">
+        <v>2</v>
+      </c>
+      <c r="AD17">
+        <v>2</v>
+      </c>
+      <c r="AE17">
+        <v>3</v>
+      </c>
+      <c r="AF17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>2018</v>
@@ -1797,10 +2337,40 @@
       <c r="V18">
         <v>3515756.1434999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W18">
+        <v>20.77333333333333</v>
+      </c>
+      <c r="X18">
+        <v>20.446666666666669</v>
+      </c>
+      <c r="Y18">
+        <v>170.88185826276151</v>
+      </c>
+      <c r="Z18">
+        <v>161.5907403163726</v>
+      </c>
+      <c r="AA18">
+        <v>3.7350256748876181E-5</v>
+      </c>
+      <c r="AB18">
+        <v>3.7513379674034601E-5</v>
+      </c>
+      <c r="AC18">
+        <v>2</v>
+      </c>
+      <c r="AD18">
+        <v>2</v>
+      </c>
+      <c r="AE18">
+        <v>3</v>
+      </c>
+      <c r="AF18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>2017</v>
@@ -1862,10 +2432,40 @@
       <c r="V19">
         <v>3515756.1434999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W19">
+        <v>20.77333333333333</v>
+      </c>
+      <c r="X19">
+        <v>20.446666666666669</v>
+      </c>
+      <c r="Y19">
+        <v>130.45301587481961</v>
+      </c>
+      <c r="Z19">
+        <v>161.5907403163726</v>
+      </c>
+      <c r="AA19">
+        <v>3.8708647267844963E-5</v>
+      </c>
+      <c r="AB19">
+        <v>3.7513379674034601E-5</v>
+      </c>
+      <c r="AC19">
+        <v>2</v>
+      </c>
+      <c r="AD19">
+        <v>2</v>
+      </c>
+      <c r="AE19">
+        <v>3</v>
+      </c>
+      <c r="AF19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>2019</v>
@@ -1927,10 +2527,40 @@
       <c r="V20">
         <v>2432735.9109999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W20">
+        <v>25.47666666666667</v>
+      </c>
+      <c r="X20">
+        <v>24.653333333333322</v>
+      </c>
+      <c r="Y20">
+        <v>227.4324457078317</v>
+      </c>
+      <c r="Z20">
+        <v>188.9133271400128</v>
+      </c>
+      <c r="AA20">
+        <v>4.1327960723847738E-5</v>
+      </c>
+      <c r="AB20">
+        <v>4.2349572679237979E-5</v>
+      </c>
+      <c r="AC20">
+        <v>3</v>
+      </c>
+      <c r="AD20">
+        <v>3</v>
+      </c>
+      <c r="AE20">
+        <v>4</v>
+      </c>
+      <c r="AF20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>2018</v>
@@ -1992,10 +2622,40 @@
       <c r="V21">
         <v>2432735.9109999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W21">
+        <v>25.47666666666667</v>
+      </c>
+      <c r="X21">
+        <v>24.653333333333322</v>
+      </c>
+      <c r="Y21">
+        <v>201.35351510417189</v>
+      </c>
+      <c r="Z21">
+        <v>188.9133271400128</v>
+      </c>
+      <c r="AA21">
+        <v>4.2604412497367387E-5</v>
+      </c>
+      <c r="AB21">
+        <v>4.2349572679237979E-5</v>
+      </c>
+      <c r="AC21">
+        <v>3</v>
+      </c>
+      <c r="AD21">
+        <v>3</v>
+      </c>
+      <c r="AE21">
+        <v>4</v>
+      </c>
+      <c r="AF21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B22">
         <v>2017</v>
@@ -2057,10 +2717,40 @@
       <c r="V22">
         <v>2432735.9109999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W22">
+        <v>25.47666666666667</v>
+      </c>
+      <c r="X22">
+        <v>24.653333333333322</v>
+      </c>
+      <c r="Y22">
+        <v>137.95402060803471</v>
+      </c>
+      <c r="Z22">
+        <v>188.9133271400128</v>
+      </c>
+      <c r="AA22">
+        <v>4.3116344816498812E-5</v>
+      </c>
+      <c r="AB22">
+        <v>4.2349572679237979E-5</v>
+      </c>
+      <c r="AC22">
+        <v>3</v>
+      </c>
+      <c r="AD22">
+        <v>3</v>
+      </c>
+      <c r="AE22">
+        <v>4</v>
+      </c>
+      <c r="AF22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B23">
         <v>2019</v>
@@ -2122,10 +2812,40 @@
       <c r="V23">
         <v>712334.82</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W23">
+        <v>20.216666666666669</v>
+      </c>
+      <c r="X23">
+        <v>15.50333333333333</v>
+      </c>
+      <c r="Y23">
+        <v>188.7574652043543</v>
+      </c>
+      <c r="Z23">
+        <v>169.22995471895271</v>
+      </c>
+      <c r="AA23">
+        <v>4.6717584417642921E-5</v>
+      </c>
+      <c r="AB23">
+        <v>5.1382180238049742E-5</v>
+      </c>
+      <c r="AC23">
+        <v>2</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>4</v>
+      </c>
+      <c r="AF23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>2018</v>
@@ -2187,10 +2907,40 @@
       <c r="V24">
         <v>712334.82</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W24">
+        <v>20.216666666666669</v>
+      </c>
+      <c r="X24">
+        <v>15.50333333333333</v>
+      </c>
+      <c r="Y24">
+        <v>175.18042288035281</v>
+      </c>
+      <c r="Z24">
+        <v>169.22995471895271</v>
+      </c>
+      <c r="AA24">
+        <v>4.9848194838980779E-5</v>
+      </c>
+      <c r="AB24">
+        <v>5.1382180238049742E-5</v>
+      </c>
+      <c r="AC24">
+        <v>2</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>4</v>
+      </c>
+      <c r="AF24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>2017</v>
@@ -2252,10 +3002,40 @@
       <c r="V25">
         <v>712334.82</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W25">
+        <v>20.216666666666669</v>
+      </c>
+      <c r="X25">
+        <v>15.50333333333333</v>
+      </c>
+      <c r="Y25">
+        <v>143.751976072151</v>
+      </c>
+      <c r="Z25">
+        <v>169.22995471895271</v>
+      </c>
+      <c r="AA25">
+        <v>5.7580761457525493E-5</v>
+      </c>
+      <c r="AB25">
+        <v>5.1382180238049742E-5</v>
+      </c>
+      <c r="AC25">
+        <v>2</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>4</v>
+      </c>
+      <c r="AF25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>2019</v>
@@ -2317,10 +3097,40 @@
       <c r="V26">
         <v>424234.34149999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W26">
+        <v>19.839999999999989</v>
+      </c>
+      <c r="X26">
+        <v>13.633333333333329</v>
+      </c>
+      <c r="Y26">
+        <v>109.1731867727639</v>
+      </c>
+      <c r="Z26">
+        <v>91.809427455320701</v>
+      </c>
+      <c r="AA26">
+        <v>7.8795426687052343E-5</v>
+      </c>
+      <c r="AB26">
+        <v>7.9966742442103198E-5</v>
+      </c>
+      <c r="AC26">
+        <v>2</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B27">
         <v>2018</v>
@@ -2382,10 +3192,40 @@
       <c r="V27">
         <v>424234.34149999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W27">
+        <v>19.839999999999989</v>
+      </c>
+      <c r="X27">
+        <v>13.633333333333329</v>
+      </c>
+      <c r="Y27">
+        <v>98.632191943848099</v>
+      </c>
+      <c r="Z27">
+        <v>91.809427455320701</v>
+      </c>
+      <c r="AA27">
+        <v>7.8233442315514234E-5</v>
+      </c>
+      <c r="AB27">
+        <v>7.9966742442103198E-5</v>
+      </c>
+      <c r="AC27">
+        <v>2</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>2017</v>
@@ -2447,10 +3287,40 @@
       <c r="V28">
         <v>424234.34149999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W28">
+        <v>19.839999999999989</v>
+      </c>
+      <c r="X28">
+        <v>13.633333333333329</v>
+      </c>
+      <c r="Y28">
+        <v>67.622903649350135</v>
+      </c>
+      <c r="Z28">
+        <v>91.809427455320701</v>
+      </c>
+      <c r="AA28">
+        <v>8.2871358323743046E-5</v>
+      </c>
+      <c r="AB28">
+        <v>7.9966742442103198E-5</v>
+      </c>
+      <c r="AC28">
+        <v>2</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>2019</v>
@@ -2512,10 +3382,40 @@
       <c r="V29">
         <v>12117131.094000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W29">
+        <v>17.52333333333333</v>
+      </c>
+      <c r="X29">
+        <v>10.11333333333334</v>
+      </c>
+      <c r="Y29">
+        <v>185.48731837298709</v>
+      </c>
+      <c r="Z29">
+        <v>189.7301363800859</v>
+      </c>
+      <c r="AA29">
+        <v>4.1890041645148112E-5</v>
+      </c>
+      <c r="AB29">
+        <v>4.4019201413608122E-5</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>4</v>
+      </c>
+      <c r="AF29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>2018</v>
@@ -2577,10 +3477,40 @@
       <c r="V30">
         <v>12117131.094000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W30">
+        <v>17.52333333333333</v>
+      </c>
+      <c r="X30">
+        <v>10.11333333333334</v>
+      </c>
+      <c r="Y30">
+        <v>212.01371026447691</v>
+      </c>
+      <c r="Z30">
+        <v>189.7301363800859</v>
+      </c>
+      <c r="AA30">
+        <v>4.4362001096687038E-5</v>
+      </c>
+      <c r="AB30">
+        <v>4.4019201413608122E-5</v>
+      </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>4</v>
+      </c>
+      <c r="AF30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>2017</v>
@@ -2642,10 +3572,40 @@
       <c r="V31">
         <v>12117131.094000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W31">
+        <v>17.52333333333333</v>
+      </c>
+      <c r="X31">
+        <v>10.11333333333334</v>
+      </c>
+      <c r="Y31">
+        <v>171.6893805027938</v>
+      </c>
+      <c r="Z31">
+        <v>189.7301363800859</v>
+      </c>
+      <c r="AA31">
+        <v>4.5805561498989197E-5</v>
+      </c>
+      <c r="AB31">
+        <v>4.4019201413608122E-5</v>
+      </c>
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>4</v>
+      </c>
+      <c r="AF31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>2019</v>
@@ -2707,10 +3667,40 @@
       <c r="V32">
         <v>6232335.7259999989</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W32">
+        <v>19.20333333333333</v>
+      </c>
+      <c r="X32">
+        <v>15.410000000000011</v>
+      </c>
+      <c r="Y32">
+        <v>221.9345538831777</v>
+      </c>
+      <c r="Z32">
+        <v>177.2731719277516</v>
+      </c>
+      <c r="AA32">
+        <v>5.4202135590702031E-5</v>
+      </c>
+      <c r="AB32">
+        <v>5.6227152436815763E-5</v>
+      </c>
+      <c r="AC32">
+        <v>2</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>4</v>
+      </c>
+      <c r="AF32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>2018</v>
@@ -2772,10 +3762,40 @@
       <c r="V33">
         <v>6232335.7259999989</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W33">
+        <v>19.20333333333333</v>
+      </c>
+      <c r="X33">
+        <v>15.410000000000011</v>
+      </c>
+      <c r="Y33">
+        <v>188.13229767269439</v>
+      </c>
+      <c r="Z33">
+        <v>177.2731719277516</v>
+      </c>
+      <c r="AA33">
+        <v>5.6330243210681118E-5</v>
+      </c>
+      <c r="AB33">
+        <v>5.6227152436815763E-5</v>
+      </c>
+      <c r="AC33">
+        <v>2</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>4</v>
+      </c>
+      <c r="AF33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>2017</v>
@@ -2837,10 +3857,40 @@
       <c r="V34">
         <v>6232335.7259999989</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W34">
+        <v>19.20333333333333</v>
+      </c>
+      <c r="X34">
+        <v>15.410000000000011</v>
+      </c>
+      <c r="Y34">
+        <v>121.75266422738279</v>
+      </c>
+      <c r="Z34">
+        <v>177.2731719277516</v>
+      </c>
+      <c r="AA34">
+        <v>5.8149078509064113E-5</v>
+      </c>
+      <c r="AB34">
+        <v>5.6227152436815763E-5</v>
+      </c>
+      <c r="AC34">
+        <v>2</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <v>4</v>
+      </c>
+      <c r="AF34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>2019</v>
@@ -2902,10 +3952,40 @@
       <c r="V35">
         <v>861389.23750000005</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W35">
+        <v>32.970000000000013</v>
+      </c>
+      <c r="X35">
+        <v>45.77</v>
+      </c>
+      <c r="Y35">
+        <v>150.9749081349533</v>
+      </c>
+      <c r="Z35">
+        <v>160.59181491688881</v>
+      </c>
+      <c r="AA35">
+        <v>2.5589074399788791E-5</v>
+      </c>
+      <c r="AB35">
+        <v>2.9467602784930919E-5</v>
+      </c>
+      <c r="AC35">
+        <v>5</v>
+      </c>
+      <c r="AD35">
+        <v>5</v>
+      </c>
+      <c r="AE35">
+        <v>3</v>
+      </c>
+      <c r="AF35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>2018</v>
@@ -2967,10 +4047,40 @@
       <c r="V36">
         <v>861389.23750000005</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W36">
+        <v>32.970000000000013</v>
+      </c>
+      <c r="X36">
+        <v>45.77</v>
+      </c>
+      <c r="Y36">
+        <v>170.25502480810829</v>
+      </c>
+      <c r="Z36">
+        <v>160.59181491688881</v>
+      </c>
+      <c r="AA36">
+        <v>3.0066829472730508E-5</v>
+      </c>
+      <c r="AB36">
+        <v>2.9467602784930919E-5</v>
+      </c>
+      <c r="AC36">
+        <v>5</v>
+      </c>
+      <c r="AD36">
+        <v>5</v>
+      </c>
+      <c r="AE36">
+        <v>3</v>
+      </c>
+      <c r="AF36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>2017</v>
@@ -3032,10 +4142,40 @@
       <c r="V37">
         <v>861389.23750000005</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W37">
+        <v>32.970000000000013</v>
+      </c>
+      <c r="X37">
+        <v>45.77</v>
+      </c>
+      <c r="Y37">
+        <v>160.5455118076049</v>
+      </c>
+      <c r="Z37">
+        <v>160.59181491688881</v>
+      </c>
+      <c r="AA37">
+        <v>3.2746904482273442E-5</v>
+      </c>
+      <c r="AB37">
+        <v>2.9467602784930919E-5</v>
+      </c>
+      <c r="AC37">
+        <v>5</v>
+      </c>
+      <c r="AD37">
+        <v>5</v>
+      </c>
+      <c r="AE37">
+        <v>3</v>
+      </c>
+      <c r="AF37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>2019</v>
@@ -3097,10 +4237,40 @@
       <c r="V38">
         <v>1060219.4680000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W38">
+        <v>30.350000000000009</v>
+      </c>
+      <c r="X38">
+        <v>31.443333333333339</v>
+      </c>
+      <c r="Y38">
+        <v>151.3725901513063</v>
+      </c>
+      <c r="Z38">
+        <v>137.8822873429196</v>
+      </c>
+      <c r="AA38">
+        <v>5.8149228242185712E-5</v>
+      </c>
+      <c r="AB38">
+        <v>6.2957516288503188E-5</v>
+      </c>
+      <c r="AC38">
+        <v>5</v>
+      </c>
+      <c r="AD38">
+        <v>4</v>
+      </c>
+      <c r="AE38">
+        <v>3</v>
+      </c>
+      <c r="AF38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>2018</v>
@@ -3162,10 +4332,40 @@
       <c r="V39">
         <v>1060219.4680000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W39">
+        <v>30.350000000000009</v>
+      </c>
+      <c r="X39">
+        <v>31.443333333333339</v>
+      </c>
+      <c r="Y39">
+        <v>140.3965306171873</v>
+      </c>
+      <c r="Z39">
+        <v>137.8822873429196</v>
+      </c>
+      <c r="AA39">
+        <v>6.3727756703960812E-5</v>
+      </c>
+      <c r="AB39">
+        <v>6.2957516288503188E-5</v>
+      </c>
+      <c r="AC39">
+        <v>5</v>
+      </c>
+      <c r="AD39">
+        <v>4</v>
+      </c>
+      <c r="AE39">
+        <v>3</v>
+      </c>
+      <c r="AF39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>2017</v>
@@ -3227,10 +4427,40 @@
       <c r="V40">
         <v>1060219.4680000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W40">
+        <v>30.350000000000009</v>
+      </c>
+      <c r="X40">
+        <v>31.443333333333339</v>
+      </c>
+      <c r="Y40">
+        <v>121.8777412602652</v>
+      </c>
+      <c r="Z40">
+        <v>137.8822873429196</v>
+      </c>
+      <c r="AA40">
+        <v>6.6995563919363006E-5</v>
+      </c>
+      <c r="AB40">
+        <v>6.2957516288503188E-5</v>
+      </c>
+      <c r="AC40">
+        <v>5</v>
+      </c>
+      <c r="AD40">
+        <v>4</v>
+      </c>
+      <c r="AE40">
+        <v>3</v>
+      </c>
+      <c r="AF40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>2019</v>
@@ -3292,10 +4522,40 @@
       <c r="V41">
         <v>7604688.6720000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W41">
+        <v>23.853333333333339</v>
+      </c>
+      <c r="X41">
+        <v>27.083333333333329</v>
+      </c>
+      <c r="Y41">
+        <v>118.8542991020685</v>
+      </c>
+      <c r="Z41">
+        <v>113.75553507997699</v>
+      </c>
+      <c r="AA41">
+        <v>4.775065117022963E-5</v>
+      </c>
+      <c r="AB41">
+        <v>4.7939778848793791E-5</v>
+      </c>
+      <c r="AC41">
+        <v>3</v>
+      </c>
+      <c r="AD41">
+        <v>3</v>
+      </c>
+      <c r="AE41">
+        <v>2</v>
+      </c>
+      <c r="AF41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>2018</v>
@@ -3357,10 +4617,40 @@
       <c r="V42">
         <v>7604688.6720000003</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W42">
+        <v>23.853333333333339</v>
+      </c>
+      <c r="X42">
+        <v>27.083333333333329</v>
+      </c>
+      <c r="Y42">
+        <v>111.365422376623</v>
+      </c>
+      <c r="Z42">
+        <v>113.75553507997699</v>
+      </c>
+      <c r="AA42">
+        <v>4.7563715369293979E-5</v>
+      </c>
+      <c r="AB42">
+        <v>4.7939778848793791E-5</v>
+      </c>
+      <c r="AC42">
+        <v>3</v>
+      </c>
+      <c r="AD42">
+        <v>3</v>
+      </c>
+      <c r="AE42">
+        <v>2</v>
+      </c>
+      <c r="AF42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>2017</v>
@@ -3422,10 +4712,40 @@
       <c r="V43">
         <v>7604688.6720000003</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W43">
+        <v>23.853333333333339</v>
+      </c>
+      <c r="X43">
+        <v>27.083333333333329</v>
+      </c>
+      <c r="Y43">
+        <v>111.0468837612397</v>
+      </c>
+      <c r="Z43">
+        <v>113.75553507997699</v>
+      </c>
+      <c r="AA43">
+        <v>4.8504970006857757E-5</v>
+      </c>
+      <c r="AB43">
+        <v>4.7939778848793791E-5</v>
+      </c>
+      <c r="AC43">
+        <v>3</v>
+      </c>
+      <c r="AD43">
+        <v>3</v>
+      </c>
+      <c r="AE43">
+        <v>2</v>
+      </c>
+      <c r="AF43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>2019</v>
@@ -3487,10 +4807,40 @@
       <c r="V44">
         <v>3849198.3689999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W44">
+        <v>28.383333333333329</v>
+      </c>
+      <c r="X44">
+        <v>31.78666666666668</v>
+      </c>
+      <c r="Y44">
+        <v>156.83984069567191</v>
+      </c>
+      <c r="Z44">
+        <v>151.67992069086671</v>
+      </c>
+      <c r="AA44">
+        <v>5.3146895279163829E-5</v>
+      </c>
+      <c r="AB44">
+        <v>5.4992145278700079E-5</v>
+      </c>
+      <c r="AC44">
+        <v>4</v>
+      </c>
+      <c r="AD44">
+        <v>4</v>
+      </c>
+      <c r="AE44">
+        <v>3</v>
+      </c>
+      <c r="AF44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>2018</v>
@@ -3552,10 +4902,40 @@
       <c r="V45">
         <v>3849198.3689999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W45">
+        <v>28.383333333333329</v>
+      </c>
+      <c r="X45">
+        <v>31.78666666666668</v>
+      </c>
+      <c r="Y45">
+        <v>159.90808552688549</v>
+      </c>
+      <c r="Z45">
+        <v>151.67992069086671</v>
+      </c>
+      <c r="AA45">
+        <v>5.506956392814812E-5</v>
+      </c>
+      <c r="AB45">
+        <v>5.4992145278700079E-5</v>
+      </c>
+      <c r="AC45">
+        <v>4</v>
+      </c>
+      <c r="AD45">
+        <v>4</v>
+      </c>
+      <c r="AE45">
+        <v>3</v>
+      </c>
+      <c r="AF45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>2017</v>
@@ -3617,10 +4997,40 @@
       <c r="V46">
         <v>3849198.3689999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W46">
+        <v>28.383333333333329</v>
+      </c>
+      <c r="X46">
+        <v>31.78666666666668</v>
+      </c>
+      <c r="Y46">
+        <v>138.2918358500427</v>
+      </c>
+      <c r="Z46">
+        <v>151.67992069086671</v>
+      </c>
+      <c r="AA46">
+        <v>5.6759976628788281E-5</v>
+      </c>
+      <c r="AB46">
+        <v>5.4992145278700079E-5</v>
+      </c>
+      <c r="AC46">
+        <v>4</v>
+      </c>
+      <c r="AD46">
+        <v>4</v>
+      </c>
+      <c r="AE46">
+        <v>3</v>
+      </c>
+      <c r="AF46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>2019</v>
@@ -3682,10 +5092,40 @@
       <c r="V47">
         <v>1998898.85</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W47">
+        <v>29.27</v>
+      </c>
+      <c r="X47">
+        <v>35.546666666666667</v>
+      </c>
+      <c r="Y47">
+        <v>110.28265387215571</v>
+      </c>
+      <c r="Z47">
+        <v>119.8417655467326</v>
+      </c>
+      <c r="AA47">
+        <v>6.1849655306355725E-5</v>
+      </c>
+      <c r="AB47">
+        <v>6.5519510224924167E-5</v>
+      </c>
+      <c r="AC47">
+        <v>4</v>
+      </c>
+      <c r="AD47">
+        <v>4</v>
+      </c>
+      <c r="AE47">
+        <v>2</v>
+      </c>
+      <c r="AF47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>2018</v>
@@ -3747,10 +5187,40 @@
       <c r="V48">
         <v>1998898.85</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W48">
+        <v>29.27</v>
+      </c>
+      <c r="X48">
+        <v>35.546666666666667</v>
+      </c>
+      <c r="Y48">
+        <v>132.85382749607359</v>
+      </c>
+      <c r="Z48">
+        <v>119.8417655467326</v>
+      </c>
+      <c r="AA48">
+        <v>6.8533737144212698E-5</v>
+      </c>
+      <c r="AB48">
+        <v>6.5519510224924167E-5</v>
+      </c>
+      <c r="AC48">
+        <v>4</v>
+      </c>
+      <c r="AD48">
+        <v>4</v>
+      </c>
+      <c r="AE48">
+        <v>2</v>
+      </c>
+      <c r="AF48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B49">
         <v>2017</v>
@@ -3812,10 +5282,40 @@
       <c r="V49">
         <v>1998898.85</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W49">
+        <v>29.27</v>
+      </c>
+      <c r="X49">
+        <v>35.546666666666667</v>
+      </c>
+      <c r="Y49">
+        <v>116.3888152719684</v>
+      </c>
+      <c r="Z49">
+        <v>119.8417655467326</v>
+      </c>
+      <c r="AA49">
+        <v>6.6175138224204105E-5</v>
+      </c>
+      <c r="AB49">
+        <v>6.5519510224924167E-5</v>
+      </c>
+      <c r="AC49">
+        <v>4</v>
+      </c>
+      <c r="AD49">
+        <v>4</v>
+      </c>
+      <c r="AE49">
+        <v>2</v>
+      </c>
+      <c r="AF49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B50">
         <v>2019</v>
@@ -3877,10 +5377,40 @@
       <c r="V50">
         <v>1861877.7045</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W50">
+        <v>26</v>
+      </c>
+      <c r="X50">
+        <v>21.54666666666667</v>
+      </c>
+      <c r="Y50">
+        <v>132.3374958540409</v>
+      </c>
+      <c r="Z50">
+        <v>128.76964050173831</v>
+      </c>
+      <c r="AA50">
+        <v>3.7799832363154688E-5</v>
+      </c>
+      <c r="AB50">
+        <v>3.793235799359528E-5</v>
+      </c>
+      <c r="AC50">
+        <v>3</v>
+      </c>
+      <c r="AD50">
+        <v>2</v>
+      </c>
+      <c r="AE50">
+        <v>2</v>
+      </c>
+      <c r="AF50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B51">
         <v>2018</v>
@@ -3942,10 +5472,40 @@
       <c r="V51">
         <v>1861877.7045</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W51">
+        <v>26</v>
+      </c>
+      <c r="X51">
+        <v>21.54666666666667</v>
+      </c>
+      <c r="Y51">
+        <v>136.44759770525519</v>
+      </c>
+      <c r="Z51">
+        <v>128.76964050173831</v>
+      </c>
+      <c r="AA51">
+        <v>3.8268480906368683E-5</v>
+      </c>
+      <c r="AB51">
+        <v>3.793235799359528E-5</v>
+      </c>
+      <c r="AC51">
+        <v>3</v>
+      </c>
+      <c r="AD51">
+        <v>2</v>
+      </c>
+      <c r="AE51">
+        <v>2</v>
+      </c>
+      <c r="AF51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B52">
         <v>2017</v>
@@ -4007,10 +5567,40 @@
       <c r="V52">
         <v>1861877.7045</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W52">
+        <v>26</v>
+      </c>
+      <c r="X52">
+        <v>21.54666666666667</v>
+      </c>
+      <c r="Y52">
+        <v>117.5238279459187</v>
+      </c>
+      <c r="Z52">
+        <v>128.76964050173831</v>
+      </c>
+      <c r="AA52">
+        <v>3.7728760711262457E-5</v>
+      </c>
+      <c r="AB52">
+        <v>3.793235799359528E-5</v>
+      </c>
+      <c r="AC52">
+        <v>3</v>
+      </c>
+      <c r="AD52">
+        <v>2</v>
+      </c>
+      <c r="AE52">
+        <v>2</v>
+      </c>
+      <c r="AF52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B53">
         <v>2019</v>
@@ -4072,10 +5662,40 @@
       <c r="V53">
         <v>2605187.1090000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W53">
+        <v>22.599999999999991</v>
+      </c>
+      <c r="X53">
+        <v>21.816666666666659</v>
+      </c>
+      <c r="Y53">
+        <v>171.5838860309668</v>
+      </c>
+      <c r="Z53">
+        <v>164.85580921089991</v>
+      </c>
+      <c r="AA53">
+        <v>5.0728474617495302E-5</v>
+      </c>
+      <c r="AB53">
+        <v>5.2400193189920902E-5</v>
+      </c>
+      <c r="AC53">
+        <v>3</v>
+      </c>
+      <c r="AD53">
+        <v>2</v>
+      </c>
+      <c r="AE53">
+        <v>3</v>
+      </c>
+      <c r="AF53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B54">
         <v>2018</v>
@@ -4137,10 +5757,40 @@
       <c r="V54">
         <v>2605187.1090000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W54">
+        <v>22.599999999999991</v>
+      </c>
+      <c r="X54">
+        <v>21.816666666666659</v>
+      </c>
+      <c r="Y54">
+        <v>178.1056575157497</v>
+      </c>
+      <c r="Z54">
+        <v>164.85580921089991</v>
+      </c>
+      <c r="AA54">
+        <v>5.1294802639596267E-5</v>
+      </c>
+      <c r="AB54">
+        <v>5.2400193189920902E-5</v>
+      </c>
+      <c r="AC54">
+        <v>3</v>
+      </c>
+      <c r="AD54">
+        <v>2</v>
+      </c>
+      <c r="AE54">
+        <v>3</v>
+      </c>
+      <c r="AF54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B55">
         <v>2017</v>
@@ -4202,10 +5852,40 @@
       <c r="V55">
         <v>2605187.1090000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W55">
+        <v>22.599999999999991</v>
+      </c>
+      <c r="X55">
+        <v>21.816666666666659</v>
+      </c>
+      <c r="Y55">
+        <v>144.87788408598331</v>
+      </c>
+      <c r="Z55">
+        <v>164.85580921089991</v>
+      </c>
+      <c r="AA55">
+        <v>5.5177302312671109E-5</v>
+      </c>
+      <c r="AB55">
+        <v>5.2400193189920902E-5</v>
+      </c>
+      <c r="AC55">
+        <v>3</v>
+      </c>
+      <c r="AD55">
+        <v>2</v>
+      </c>
+      <c r="AE55">
+        <v>3</v>
+      </c>
+      <c r="AF55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B56">
         <v>2019</v>
@@ -4267,10 +5947,40 @@
       <c r="V56">
         <v>3024756.6765000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W56">
+        <v>20.696666666666658</v>
+      </c>
+      <c r="X56">
+        <v>22.323333333333341</v>
+      </c>
+      <c r="Y56">
+        <v>240.4739378380871</v>
+      </c>
+      <c r="Z56">
+        <v>195.27603071534759</v>
+      </c>
+      <c r="AA56">
+        <v>5.8412371046858307E-5</v>
+      </c>
+      <c r="AB56">
+        <v>5.9363523821950707E-5</v>
+      </c>
+      <c r="AC56">
+        <v>2</v>
+      </c>
+      <c r="AD56">
+        <v>2</v>
+      </c>
+      <c r="AE56">
+        <v>4</v>
+      </c>
+      <c r="AF56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B57">
         <v>2018</v>
@@ -4332,10 +6042,40 @@
       <c r="V57">
         <v>3024756.6765000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W57">
+        <v>20.696666666666658</v>
+      </c>
+      <c r="X57">
+        <v>22.323333333333341</v>
+      </c>
+      <c r="Y57">
+        <v>215.45949069665599</v>
+      </c>
+      <c r="Z57">
+        <v>195.27603071534759</v>
+      </c>
+      <c r="AA57">
+        <v>5.9473411297434233E-5</v>
+      </c>
+      <c r="AB57">
+        <v>5.9363523821950707E-5</v>
+      </c>
+      <c r="AC57">
+        <v>2</v>
+      </c>
+      <c r="AD57">
+        <v>2</v>
+      </c>
+      <c r="AE57">
+        <v>4</v>
+      </c>
+      <c r="AF57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B58">
         <v>2017</v>
@@ -4397,10 +6137,40 @@
       <c r="V58">
         <v>3024756.6765000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W58">
+        <v>20.696666666666658</v>
+      </c>
+      <c r="X58">
+        <v>22.323333333333341</v>
+      </c>
+      <c r="Y58">
+        <v>129.89466361129959</v>
+      </c>
+      <c r="Z58">
+        <v>195.27603071534759</v>
+      </c>
+      <c r="AA58">
+        <v>6.0204789121559623E-5</v>
+      </c>
+      <c r="AB58">
+        <v>5.9363523821950707E-5</v>
+      </c>
+      <c r="AC58">
+        <v>2</v>
+      </c>
+      <c r="AD58">
+        <v>2</v>
+      </c>
+      <c r="AE58">
+        <v>4</v>
+      </c>
+      <c r="AF58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B59">
         <v>2019</v>
@@ -4462,10 +6232,40 @@
       <c r="V59">
         <v>985847.01749999996</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W59">
+        <v>25.24666666666667</v>
+      </c>
+      <c r="X59">
+        <v>25.7</v>
+      </c>
+      <c r="Y59">
+        <v>86.716188701154138</v>
+      </c>
+      <c r="Z59">
+        <v>92.232816775076699</v>
+      </c>
+      <c r="AA59">
+        <v>4.6469498823824828E-5</v>
+      </c>
+      <c r="AB59">
+        <v>5.0361944706342628E-5</v>
+      </c>
+      <c r="AC59">
+        <v>3</v>
+      </c>
+      <c r="AD59">
+        <v>3</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
+      </c>
+      <c r="AF59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B60">
         <v>2018</v>
@@ -4527,10 +6327,40 @@
       <c r="V60">
         <v>985847.01749999996</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W60">
+        <v>25.24666666666667</v>
+      </c>
+      <c r="X60">
+        <v>25.7</v>
+      </c>
+      <c r="Y60">
+        <v>98.104900946256606</v>
+      </c>
+      <c r="Z60">
+        <v>92.232816775076699</v>
+      </c>
+      <c r="AA60">
+        <v>5.212972796899028E-5</v>
+      </c>
+      <c r="AB60">
+        <v>5.0361944706342628E-5</v>
+      </c>
+      <c r="AC60">
+        <v>3</v>
+      </c>
+      <c r="AD60">
+        <v>3</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
+      </c>
+      <c r="AF60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B61">
         <v>2017</v>
@@ -4592,10 +6422,40 @@
       <c r="V61">
         <v>985847.01749999996</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W61">
+        <v>25.24666666666667</v>
+      </c>
+      <c r="X61">
+        <v>25.7</v>
+      </c>
+      <c r="Y61">
+        <v>91.877360677819368</v>
+      </c>
+      <c r="Z61">
+        <v>92.232816775076699</v>
+      </c>
+      <c r="AA61">
+        <v>5.2486607326212763E-5</v>
+      </c>
+      <c r="AB61">
+        <v>5.0361944706342628E-5</v>
+      </c>
+      <c r="AC61">
+        <v>3</v>
+      </c>
+      <c r="AD61">
+        <v>3</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
+      </c>
+      <c r="AF61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B62">
         <v>2019</v>
@@ -4657,10 +6517,40 @@
       <c r="V62">
         <v>3719043.077000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W62">
+        <v>19.823333333333341</v>
+      </c>
+      <c r="X62">
+        <v>13.736666666666659</v>
+      </c>
+      <c r="Y62">
+        <v>188.2505686287322</v>
+      </c>
+      <c r="Z62">
+        <v>162.0979653058927</v>
+      </c>
+      <c r="AA62">
+        <v>7.1509219057013085E-5</v>
+      </c>
+      <c r="AB62">
+        <v>7.5087560278045334E-5</v>
+      </c>
+      <c r="AC62">
+        <v>2</v>
+      </c>
+      <c r="AD62">
+        <v>1</v>
+      </c>
+      <c r="AE62">
+        <v>3</v>
+      </c>
+      <c r="AF62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B63">
         <v>2018</v>
@@ -4719,10 +6609,40 @@
       <c r="V63">
         <v>3719043.077000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W63">
+        <v>19.823333333333341</v>
+      </c>
+      <c r="X63">
+        <v>13.736666666666659</v>
+      </c>
+      <c r="Y63">
+        <v>169.05587055129439</v>
+      </c>
+      <c r="Z63">
+        <v>162.0979653058927</v>
+      </c>
+      <c r="AA63">
+        <v>7.5348278765814073E-5</v>
+      </c>
+      <c r="AB63">
+        <v>7.5087560278045334E-5</v>
+      </c>
+      <c r="AC63">
+        <v>2</v>
+      </c>
+      <c r="AD63">
+        <v>1</v>
+      </c>
+      <c r="AE63">
+        <v>3</v>
+      </c>
+      <c r="AF63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B64">
         <v>2017</v>
@@ -4784,10 +6704,40 @@
       <c r="V64">
         <v>3719043.077000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W64">
+        <v>19.823333333333341</v>
+      </c>
+      <c r="X64">
+        <v>13.736666666666659</v>
+      </c>
+      <c r="Y64">
+        <v>128.98745673765151</v>
+      </c>
+      <c r="Z64">
+        <v>162.0979653058927</v>
+      </c>
+      <c r="AA64">
+        <v>7.8405183011308845E-5</v>
+      </c>
+      <c r="AB64">
+        <v>7.5087560278045334E-5</v>
+      </c>
+      <c r="AC64">
+        <v>2</v>
+      </c>
+      <c r="AD64">
+        <v>1</v>
+      </c>
+      <c r="AE64">
+        <v>3</v>
+      </c>
+      <c r="AF64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B65">
         <v>2019</v>
@@ -4849,10 +6799,40 @@
       <c r="V65">
         <v>4767023.7649999997</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W65">
+        <v>34.100000000000009</v>
+      </c>
+      <c r="X65">
+        <v>44.376666666666672</v>
+      </c>
+      <c r="Y65">
+        <v>216.68084069222181</v>
+      </c>
+      <c r="Z65">
+        <v>206.86565047992789</v>
+      </c>
+      <c r="AA65">
+        <v>7.0156004942196823E-5</v>
+      </c>
+      <c r="AB65">
+        <v>7.290135213977208E-5</v>
+      </c>
+      <c r="AC65">
+        <v>5</v>
+      </c>
+      <c r="AD65">
+        <v>5</v>
+      </c>
+      <c r="AE65">
+        <v>5</v>
+      </c>
+      <c r="AF65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B66">
         <v>2018</v>
@@ -4914,10 +6894,40 @@
       <c r="V66">
         <v>4767023.7649999997</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W66">
+        <v>34.100000000000009</v>
+      </c>
+      <c r="X66">
+        <v>44.376666666666672</v>
+      </c>
+      <c r="Y66">
+        <v>214.60977969343099</v>
+      </c>
+      <c r="Z66">
+        <v>206.86565047992789</v>
+      </c>
+      <c r="AA66">
+        <v>7.3877739371202159E-5</v>
+      </c>
+      <c r="AB66">
+        <v>7.290135213977208E-5</v>
+      </c>
+      <c r="AC66">
+        <v>5</v>
+      </c>
+      <c r="AD66">
+        <v>5</v>
+      </c>
+      <c r="AE66">
+        <v>5</v>
+      </c>
+      <c r="AF66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B67">
         <v>2017</v>
@@ -4979,10 +6989,40 @@
       <c r="V67">
         <v>4767023.7649999997</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W67">
+        <v>34.100000000000009</v>
+      </c>
+      <c r="X67">
+        <v>44.376666666666672</v>
+      </c>
+      <c r="Y67">
+        <v>189.30633105413099</v>
+      </c>
+      <c r="Z67">
+        <v>206.86565047992789</v>
+      </c>
+      <c r="AA67">
+        <v>7.4670312105917271E-5</v>
+      </c>
+      <c r="AB67">
+        <v>7.290135213977208E-5</v>
+      </c>
+      <c r="AC67">
+        <v>5</v>
+      </c>
+      <c r="AD67">
+        <v>5</v>
+      </c>
+      <c r="AE67">
+        <v>5</v>
+      </c>
+      <c r="AF67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B68">
         <v>2019</v>
@@ -5044,10 +7084,40 @@
       <c r="V68">
         <v>5307910.0674999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W68">
+        <v>21.79666666666667</v>
+      </c>
+      <c r="X68">
+        <v>35.376666666666672</v>
+      </c>
+      <c r="Y68">
+        <v>250.64934617979</v>
+      </c>
+      <c r="Z68">
+        <v>205.46406183686409</v>
+      </c>
+      <c r="AA68">
+        <v>1.9592659483770471E-5</v>
+      </c>
+      <c r="AB68">
+        <v>1.903544406242864E-5</v>
+      </c>
+      <c r="AC68">
+        <v>2</v>
+      </c>
+      <c r="AD68">
+        <v>4</v>
+      </c>
+      <c r="AE68">
+        <v>4</v>
+      </c>
+      <c r="AF68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B69">
         <v>2018</v>
@@ -5109,10 +7179,40 @@
       <c r="V69">
         <v>5307910.0674999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W69">
+        <v>21.79666666666667</v>
+      </c>
+      <c r="X69">
+        <v>35.376666666666672</v>
+      </c>
+      <c r="Y69">
+        <v>204.3025008354665</v>
+      </c>
+      <c r="Z69">
+        <v>205.46406183686409</v>
+      </c>
+      <c r="AA69">
+        <v>1.850204820724214E-5</v>
+      </c>
+      <c r="AB69">
+        <v>1.903544406242864E-5</v>
+      </c>
+      <c r="AC69">
+        <v>2</v>
+      </c>
+      <c r="AD69">
+        <v>4</v>
+      </c>
+      <c r="AE69">
+        <v>4</v>
+      </c>
+      <c r="AF69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B70">
         <v>2017</v>
@@ -5174,10 +7274,40 @@
       <c r="V70">
         <v>5307910.0674999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W70">
+        <v>21.79666666666667</v>
+      </c>
+      <c r="X70">
+        <v>35.376666666666672</v>
+      </c>
+      <c r="Y70">
+        <v>161.44033849533571</v>
+      </c>
+      <c r="Z70">
+        <v>205.46406183686409</v>
+      </c>
+      <c r="AA70">
+        <v>1.9011624496273309E-5</v>
+      </c>
+      <c r="AB70">
+        <v>1.903544406242864E-5</v>
+      </c>
+      <c r="AC70">
+        <v>2</v>
+      </c>
+      <c r="AD70">
+        <v>4</v>
+      </c>
+      <c r="AE70">
+        <v>4</v>
+      </c>
+      <c r="AF70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B71">
         <v>2019</v>
@@ -5239,10 +7369,40 @@
       <c r="V71">
         <v>3057035.3360000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W71">
+        <v>29.25</v>
+      </c>
+      <c r="X71">
+        <v>34.683333333333337</v>
+      </c>
+      <c r="Y71">
+        <v>190.056059594072</v>
+      </c>
+      <c r="Z71">
+        <v>188.8378754415549</v>
+      </c>
+      <c r="AA71">
+        <v>3.5015611098865578E-5</v>
+      </c>
+      <c r="AB71">
+        <v>3.5075211982998618E-5</v>
+      </c>
+      <c r="AC71">
+        <v>4</v>
+      </c>
+      <c r="AD71">
+        <v>4</v>
+      </c>
+      <c r="AE71">
+        <v>4</v>
+      </c>
+      <c r="AF71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B72">
         <v>2018</v>
@@ -5304,10 +7464,40 @@
       <c r="V72">
         <v>3057035.3360000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W72">
+        <v>29.25</v>
+      </c>
+      <c r="X72">
+        <v>34.683333333333337</v>
+      </c>
+      <c r="Y72">
+        <v>197.28344023302449</v>
+      </c>
+      <c r="Z72">
+        <v>188.8378754415549</v>
+      </c>
+      <c r="AA72">
+        <v>3.4902931496711558E-5</v>
+      </c>
+      <c r="AB72">
+        <v>3.5075211982998618E-5</v>
+      </c>
+      <c r="AC72">
+        <v>4</v>
+      </c>
+      <c r="AD72">
+        <v>4</v>
+      </c>
+      <c r="AE72">
+        <v>4</v>
+      </c>
+      <c r="AF72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B73">
         <v>2017</v>
@@ -5369,10 +7559,40 @@
       <c r="V73">
         <v>3057035.3360000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W73">
+        <v>29.25</v>
+      </c>
+      <c r="X73">
+        <v>34.683333333333337</v>
+      </c>
+      <c r="Y73">
+        <v>179.17412649756821</v>
+      </c>
+      <c r="Z73">
+        <v>188.8378754415549</v>
+      </c>
+      <c r="AA73">
+        <v>3.5307093353418717E-5</v>
+      </c>
+      <c r="AB73">
+        <v>3.5075211982998618E-5</v>
+      </c>
+      <c r="AC73">
+        <v>4</v>
+      </c>
+      <c r="AD73">
+        <v>4</v>
+      </c>
+      <c r="AE73">
+        <v>4</v>
+      </c>
+      <c r="AF73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B74">
         <v>2019</v>
@@ -5434,10 +7654,40 @@
       <c r="V74">
         <v>1451521.88</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W74">
+        <v>21.19</v>
+      </c>
+      <c r="X74">
+        <v>19.736666666666661</v>
+      </c>
+      <c r="Y74">
+        <v>160.16912745400711</v>
+      </c>
+      <c r="Z74">
+        <v>147.03394343597489</v>
+      </c>
+      <c r="AA74">
+        <v>6.1043057302479092E-5</v>
+      </c>
+      <c r="AB74">
+        <v>6.1565418368630346E-5</v>
+      </c>
+      <c r="AC74">
+        <v>2</v>
+      </c>
+      <c r="AD74">
+        <v>2</v>
+      </c>
+      <c r="AE74">
+        <v>3</v>
+      </c>
+      <c r="AF74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B75">
         <v>2018</v>
@@ -5499,10 +7749,40 @@
       <c r="V75">
         <v>1451521.88</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W75">
+        <v>21.19</v>
+      </c>
+      <c r="X75">
+        <v>19.736666666666661</v>
+      </c>
+      <c r="Y75">
+        <v>154.74186858278711</v>
+      </c>
+      <c r="Z75">
+        <v>147.03394343597489</v>
+      </c>
+      <c r="AA75">
+        <v>6.0481114016017282E-5</v>
+      </c>
+      <c r="AB75">
+        <v>6.1565418368630346E-5</v>
+      </c>
+      <c r="AC75">
+        <v>2</v>
+      </c>
+      <c r="AD75">
+        <v>2</v>
+      </c>
+      <c r="AE75">
+        <v>3</v>
+      </c>
+      <c r="AF75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B76">
         <v>2017</v>
@@ -5564,10 +7844,40 @@
       <c r="V76">
         <v>1451521.88</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W76">
+        <v>21.19</v>
+      </c>
+      <c r="X76">
+        <v>19.736666666666661</v>
+      </c>
+      <c r="Y76">
+        <v>126.1908342711307</v>
+      </c>
+      <c r="Z76">
+        <v>147.03394343597489</v>
+      </c>
+      <c r="AA76">
+        <v>6.317208378739465E-5</v>
+      </c>
+      <c r="AB76">
+        <v>6.1565418368630346E-5</v>
+      </c>
+      <c r="AC76">
+        <v>2</v>
+      </c>
+      <c r="AD76">
+        <v>2</v>
+      </c>
+      <c r="AE76">
+        <v>3</v>
+      </c>
+      <c r="AF76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B77">
         <v>2019</v>
@@ -5629,10 +7939,40 @@
       <c r="V77">
         <v>3572956.9920000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W77">
+        <v>24.326666666666672</v>
+      </c>
+      <c r="X77">
+        <v>25.25333333333333</v>
+      </c>
+      <c r="Y77">
+        <v>148.41984753450961</v>
+      </c>
+      <c r="Z77">
+        <v>142.32350229942719</v>
+      </c>
+      <c r="AA77">
+        <v>5.0601892139619198E-5</v>
+      </c>
+      <c r="AB77">
+        <v>5.2296310458368779E-5</v>
+      </c>
+      <c r="AC77">
+        <v>3</v>
+      </c>
+      <c r="AD77">
+        <v>3</v>
+      </c>
+      <c r="AE77">
+        <v>3</v>
+      </c>
+      <c r="AF77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B78">
         <v>2018</v>
@@ -5694,10 +8034,40 @@
       <c r="V78">
         <v>3572956.9920000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W78">
+        <v>24.326666666666672</v>
+      </c>
+      <c r="X78">
+        <v>25.25333333333333</v>
+      </c>
+      <c r="Y78">
+        <v>150.57120032638781</v>
+      </c>
+      <c r="Z78">
+        <v>142.32350229942719</v>
+      </c>
+      <c r="AA78">
+        <v>5.2294713188952439E-5</v>
+      </c>
+      <c r="AB78">
+        <v>5.2296310458368779E-5</v>
+      </c>
+      <c r="AC78">
+        <v>3</v>
+      </c>
+      <c r="AD78">
+        <v>3</v>
+      </c>
+      <c r="AE78">
+        <v>3</v>
+      </c>
+      <c r="AF78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B79">
         <v>2017</v>
@@ -5759,10 +8129,40 @@
       <c r="V79">
         <v>3572956.9920000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W79">
+        <v>24.326666666666672</v>
+      </c>
+      <c r="X79">
+        <v>25.25333333333333</v>
+      </c>
+      <c r="Y79">
+        <v>127.9794590373843</v>
+      </c>
+      <c r="Z79">
+        <v>142.32350229942719</v>
+      </c>
+      <c r="AA79">
+        <v>5.3992326046534702E-5</v>
+      </c>
+      <c r="AB79">
+        <v>5.2296310458368779E-5</v>
+      </c>
+      <c r="AC79">
+        <v>3</v>
+      </c>
+      <c r="AD79">
+        <v>3</v>
+      </c>
+      <c r="AE79">
+        <v>3</v>
+      </c>
+      <c r="AF79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B80">
         <v>2019</v>
@@ -5824,10 +8224,40 @@
       <c r="V80">
         <v>738159.32250000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W80">
+        <v>32.243333333333332</v>
+      </c>
+      <c r="X80">
+        <v>34.739999999999988</v>
+      </c>
+      <c r="Y80">
+        <v>142.4691388355391</v>
+      </c>
+      <c r="Z80">
+        <v>148.06481157731369</v>
+      </c>
+      <c r="AA80">
+        <v>4.1864865851600952E-5</v>
+      </c>
+      <c r="AB80">
+        <v>4.4220239942497518E-5</v>
+      </c>
+      <c r="AC80">
+        <v>5</v>
+      </c>
+      <c r="AD80">
+        <v>4</v>
+      </c>
+      <c r="AE80">
+        <v>3</v>
+      </c>
+      <c r="AF80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B81">
         <v>2018</v>
@@ -5889,10 +8319,40 @@
       <c r="V81">
         <v>738159.32250000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W81">
+        <v>32.243333333333332</v>
+      </c>
+      <c r="X81">
+        <v>34.739999999999988</v>
+      </c>
+      <c r="Y81">
+        <v>160.65560291016979</v>
+      </c>
+      <c r="Z81">
+        <v>148.06481157731369</v>
+      </c>
+      <c r="AA81">
+        <v>4.4499563413256461E-5</v>
+      </c>
+      <c r="AB81">
+        <v>4.4220239942497518E-5</v>
+      </c>
+      <c r="AC81">
+        <v>5</v>
+      </c>
+      <c r="AD81">
+        <v>4</v>
+      </c>
+      <c r="AE81">
+        <v>3</v>
+      </c>
+      <c r="AF81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B82">
         <v>2017</v>
@@ -5954,10 +8414,40 @@
       <c r="V82">
         <v>738159.32250000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W82">
+        <v>32.243333333333332</v>
+      </c>
+      <c r="X82">
+        <v>34.739999999999988</v>
+      </c>
+      <c r="Y82">
+        <v>141.06969298623201</v>
+      </c>
+      <c r="Z82">
+        <v>148.06481157731369</v>
+      </c>
+      <c r="AA82">
+        <v>4.6296290562635149E-5</v>
+      </c>
+      <c r="AB82">
+        <v>4.4220239942497518E-5</v>
+      </c>
+      <c r="AC82">
+        <v>5</v>
+      </c>
+      <c r="AD82">
+        <v>4</v>
+      </c>
+      <c r="AE82">
+        <v>3</v>
+      </c>
+      <c r="AF82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B83">
         <v>2019</v>
@@ -6019,10 +8509,40 @@
       <c r="V83">
         <v>1281044.986</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W83">
+        <v>30.410000000000011</v>
+      </c>
+      <c r="X83">
+        <v>38.386666666666663</v>
+      </c>
+      <c r="Y83">
+        <v>151.2025050773666</v>
+      </c>
+      <c r="Z83">
+        <v>153.11018957976441</v>
+      </c>
+      <c r="AA83">
+        <v>6.3877987828977212E-5</v>
+      </c>
+      <c r="AB83">
+        <v>6.2960597768734651E-5</v>
+      </c>
+      <c r="AC83">
+        <v>5</v>
+      </c>
+      <c r="AD83">
+        <v>5</v>
+      </c>
+      <c r="AE83">
+        <v>3</v>
+      </c>
+      <c r="AF83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B84">
         <v>2018</v>
@@ -6084,10 +8604,40 @@
       <c r="V84">
         <v>1281044.986</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W84">
+        <v>30.410000000000011</v>
+      </c>
+      <c r="X84">
+        <v>38.386666666666663</v>
+      </c>
+      <c r="Y84">
+        <v>153.17804772236161</v>
+      </c>
+      <c r="Z84">
+        <v>153.11018957976441</v>
+      </c>
+      <c r="AA84">
+        <v>6.1940682743219389E-5</v>
+      </c>
+      <c r="AB84">
+        <v>6.2960597768734651E-5</v>
+      </c>
+      <c r="AC84">
+        <v>5</v>
+      </c>
+      <c r="AD84">
+        <v>5</v>
+      </c>
+      <c r="AE84">
+        <v>3</v>
+      </c>
+      <c r="AF84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B85">
         <v>2017</v>
@@ -6149,10 +8699,40 @@
       <c r="V85">
         <v>1281044.986</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W85">
+        <v>30.410000000000011</v>
+      </c>
+      <c r="X85">
+        <v>38.386666666666663</v>
+      </c>
+      <c r="Y85">
+        <v>154.95001593956511</v>
+      </c>
+      <c r="Z85">
+        <v>153.11018957976441</v>
+      </c>
+      <c r="AA85">
+        <v>6.3063122734007367E-5</v>
+      </c>
+      <c r="AB85">
+        <v>6.2960597768734651E-5</v>
+      </c>
+      <c r="AC85">
+        <v>5</v>
+      </c>
+      <c r="AD85">
+        <v>5</v>
+      </c>
+      <c r="AE85">
+        <v>3</v>
+      </c>
+      <c r="AF85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B86">
         <v>2019</v>
@@ -6214,10 +8794,40 @@
       <c r="V86">
         <v>1747987.584</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W86">
+        <v>20.633333333333329</v>
+      </c>
+      <c r="X86">
+        <v>18.74666666666667</v>
+      </c>
+      <c r="Y86">
+        <v>245.5374780282192</v>
+      </c>
+      <c r="Z86">
+        <v>197.48465730520891</v>
+      </c>
+      <c r="AA86">
+        <v>4.0236474439055363E-5</v>
+      </c>
+      <c r="AB86">
+        <v>4.4066401406638778E-5</v>
+      </c>
+      <c r="AC86">
+        <v>2</v>
+      </c>
+      <c r="AD86">
+        <v>2</v>
+      </c>
+      <c r="AE86">
+        <v>4</v>
+      </c>
+      <c r="AF86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B87">
         <v>2018</v>
@@ -6279,10 +8889,40 @@
       <c r="V87">
         <v>1747987.584</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W87">
+        <v>20.633333333333329</v>
+      </c>
+      <c r="X87">
+        <v>18.74666666666667</v>
+      </c>
+      <c r="Y87">
+        <v>219.3664214264808</v>
+      </c>
+      <c r="Z87">
+        <v>197.48465730520891</v>
+      </c>
+      <c r="AA87">
+        <v>4.3893786285136177E-5</v>
+      </c>
+      <c r="AB87">
+        <v>4.4066401406638778E-5</v>
+      </c>
+      <c r="AC87">
+        <v>2</v>
+      </c>
+      <c r="AD87">
+        <v>2</v>
+      </c>
+      <c r="AE87">
+        <v>4</v>
+      </c>
+      <c r="AF87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B88">
         <v>2017</v>
@@ -6344,10 +8984,40 @@
       <c r="V88">
         <v>1747987.584</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W88">
+        <v>20.633333333333329</v>
+      </c>
+      <c r="X88">
+        <v>18.74666666666667</v>
+      </c>
+      <c r="Y88">
+        <v>127.5500724609266</v>
+      </c>
+      <c r="Z88">
+        <v>197.48465730520891</v>
+      </c>
+      <c r="AA88">
+        <v>4.8068943495724793E-5</v>
+      </c>
+      <c r="AB88">
+        <v>4.4066401406638778E-5</v>
+      </c>
+      <c r="AC88">
+        <v>2</v>
+      </c>
+      <c r="AD88">
+        <v>2</v>
+      </c>
+      <c r="AE88">
+        <v>4</v>
+      </c>
+      <c r="AF88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B89">
         <v>2019</v>
@@ -6409,10 +9079,40 @@
       <c r="V89">
         <v>1063553.1854999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W89">
+        <v>28.320000000000011</v>
+      </c>
+      <c r="X89">
+        <v>28.49666666666667</v>
+      </c>
+      <c r="Y89">
+        <v>110.97901788946309</v>
+      </c>
+      <c r="Z89">
+        <v>107.53939394787319</v>
+      </c>
+      <c r="AA89">
+        <v>4.2657751327747103E-5</v>
+      </c>
+      <c r="AB89">
+        <v>4.5479851361161517E-5</v>
+      </c>
+      <c r="AC89">
+        <v>4</v>
+      </c>
+      <c r="AD89">
+        <v>3</v>
+      </c>
+      <c r="AE89">
+        <v>2</v>
+      </c>
+      <c r="AF89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B90">
         <v>2018</v>
@@ -6474,10 +9174,40 @@
       <c r="V90">
         <v>1063553.1854999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W90">
+        <v>28.320000000000011</v>
+      </c>
+      <c r="X90">
+        <v>28.49666666666667</v>
+      </c>
+      <c r="Y90">
+        <v>115.3599732225145</v>
+      </c>
+      <c r="Z90">
+        <v>107.53939394787319</v>
+      </c>
+      <c r="AA90">
+        <v>4.7880849050564558E-5</v>
+      </c>
+      <c r="AB90">
+        <v>4.5479851361161517E-5</v>
+      </c>
+      <c r="AC90">
+        <v>4</v>
+      </c>
+      <c r="AD90">
+        <v>3</v>
+      </c>
+      <c r="AE90">
+        <v>2</v>
+      </c>
+      <c r="AF90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B91">
         <v>2017</v>
@@ -6539,10 +9269,40 @@
       <c r="V91">
         <v>1063553.1854999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W91">
+        <v>28.320000000000011</v>
+      </c>
+      <c r="X91">
+        <v>28.49666666666667</v>
+      </c>
+      <c r="Y91">
+        <v>96.279190731642075</v>
+      </c>
+      <c r="Z91">
+        <v>107.53939394787319</v>
+      </c>
+      <c r="AA91">
+        <v>4.5900953705172931E-5</v>
+      </c>
+      <c r="AB91">
+        <v>4.5479851361161517E-5</v>
+      </c>
+      <c r="AC91">
+        <v>4</v>
+      </c>
+      <c r="AD91">
+        <v>3</v>
+      </c>
+      <c r="AE91">
+        <v>2</v>
+      </c>
+      <c r="AF91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B92">
         <v>2019</v>
@@ -6604,10 +9364,40 @@
       <c r="V92">
         <v>6126133.7955000009</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W92">
+        <v>25.12</v>
+      </c>
+      <c r="X92">
+        <v>10.02666666666666</v>
+      </c>
+      <c r="Y92">
+        <v>245.7552877976479</v>
+      </c>
+      <c r="Z92">
+        <v>215.64106032155519</v>
+      </c>
+      <c r="AA92">
+        <v>2.7747256600891299E-5</v>
+      </c>
+      <c r="AB92">
+        <v>2.7857829904861031E-5</v>
+      </c>
+      <c r="AC92">
+        <v>3</v>
+      </c>
+      <c r="AD92">
+        <v>1</v>
+      </c>
+      <c r="AE92">
+        <v>5</v>
+      </c>
+      <c r="AF92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B93">
         <v>2018</v>
@@ -6669,10 +9459,40 @@
       <c r="V93">
         <v>6126133.7955000009</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W93">
+        <v>25.12</v>
+      </c>
+      <c r="X93">
+        <v>10.02666666666666</v>
+      </c>
+      <c r="Y93">
+        <v>217.1168128872774</v>
+      </c>
+      <c r="Z93">
+        <v>215.64106032155519</v>
+      </c>
+      <c r="AA93">
+        <v>2.7650277621063089E-5</v>
+      </c>
+      <c r="AB93">
+        <v>2.7857829904861031E-5</v>
+      </c>
+      <c r="AC93">
+        <v>3</v>
+      </c>
+      <c r="AD93">
+        <v>1</v>
+      </c>
+      <c r="AE93">
+        <v>5</v>
+      </c>
+      <c r="AF93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B94">
         <v>2017</v>
@@ -6734,10 +9554,40 @@
       <c r="V94">
         <v>6126133.7955000009</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W94">
+        <v>25.12</v>
+      </c>
+      <c r="X94">
+        <v>10.02666666666666</v>
+      </c>
+      <c r="Y94">
+        <v>184.05108027974021</v>
+      </c>
+      <c r="Z94">
+        <v>215.64106032155519</v>
+      </c>
+      <c r="AA94">
+        <v>2.81759554926287E-5</v>
+      </c>
+      <c r="AB94">
+        <v>2.7857829904861031E-5</v>
+      </c>
+      <c r="AC94">
+        <v>3</v>
+      </c>
+      <c r="AD94">
+        <v>1</v>
+      </c>
+      <c r="AE94">
+        <v>5</v>
+      </c>
+      <c r="AF94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B95">
         <v>2019</v>
@@ -6799,10 +9649,40 @@
       <c r="V95">
         <v>1146292.7450000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W95">
+        <v>30.27333333333333</v>
+      </c>
+      <c r="X95">
+        <v>30.326666666666672</v>
+      </c>
+      <c r="Y95">
+        <v>243.132210524459</v>
+      </c>
+      <c r="Z95">
+        <v>214.45871054518449</v>
+      </c>
+      <c r="AA95">
+        <v>6.1933060135626613E-5</v>
+      </c>
+      <c r="AB95">
+        <v>6.1778857585758081E-5</v>
+      </c>
+      <c r="AC95">
+        <v>5</v>
+      </c>
+      <c r="AD95">
+        <v>3</v>
+      </c>
+      <c r="AE95">
+        <v>5</v>
+      </c>
+      <c r="AF95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B96">
         <v>2018</v>
@@ -6864,10 +9744,40 @@
       <c r="V96">
         <v>1146292.7450000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W96">
+        <v>30.27333333333333</v>
+      </c>
+      <c r="X96">
+        <v>30.326666666666672</v>
+      </c>
+      <c r="Y96">
+        <v>213.76384965255971</v>
+      </c>
+      <c r="Z96">
+        <v>214.45871054518449</v>
+      </c>
+      <c r="AA96">
+        <v>6.2261511130069306E-5</v>
+      </c>
+      <c r="AB96">
+        <v>6.1778857585758081E-5</v>
+      </c>
+      <c r="AC96">
+        <v>5</v>
+      </c>
+      <c r="AD96">
+        <v>3</v>
+      </c>
+      <c r="AE96">
+        <v>5</v>
+      </c>
+      <c r="AF96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B97">
         <v>2017</v>
@@ -6929,10 +9839,40 @@
       <c r="V97">
         <v>1146292.7450000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W97">
+        <v>30.27333333333333</v>
+      </c>
+      <c r="X97">
+        <v>30.326666666666672</v>
+      </c>
+      <c r="Y97">
+        <v>186.48007145853481</v>
+      </c>
+      <c r="Z97">
+        <v>214.45871054518449</v>
+      </c>
+      <c r="AA97">
+        <v>6.114200149157835E-5</v>
+      </c>
+      <c r="AB97">
+        <v>6.1778857585758081E-5</v>
+      </c>
+      <c r="AC97">
+        <v>5</v>
+      </c>
+      <c r="AD97">
+        <v>3</v>
+      </c>
+      <c r="AE97">
+        <v>5</v>
+      </c>
+      <c r="AF97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B98">
         <v>2019</v>
@@ -6994,10 +9934,40 @@
       <c r="V98">
         <v>11690053.203500001</v>
       </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W98">
+        <v>15.393333333333331</v>
+      </c>
+      <c r="X98">
+        <v>8.5033333333333303</v>
+      </c>
+      <c r="Y98">
+        <v>118.87124342461939</v>
+      </c>
+      <c r="Z98">
+        <v>110.9877861757615</v>
+      </c>
+      <c r="AA98">
+        <v>2.5916337273424759E-5</v>
+      </c>
+      <c r="AB98">
+        <v>2.7100664917716049E-5</v>
+      </c>
+      <c r="AC98">
+        <v>1</v>
+      </c>
+      <c r="AD98">
+        <v>1</v>
+      </c>
+      <c r="AE98">
+        <v>2</v>
+      </c>
+      <c r="AF98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B99">
         <v>2018</v>
@@ -7059,10 +10029,40 @@
       <c r="V99">
         <v>11690053.203500001</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W99">
+        <v>15.393333333333331</v>
+      </c>
+      <c r="X99">
+        <v>8.5033333333333303</v>
+      </c>
+      <c r="Y99">
+        <v>110.6614219354181</v>
+      </c>
+      <c r="Z99">
+        <v>110.9877861757615</v>
+      </c>
+      <c r="AA99">
+        <v>2.6876783333955032E-5</v>
+      </c>
+      <c r="AB99">
+        <v>2.7100664917716049E-5</v>
+      </c>
+      <c r="AC99">
+        <v>1</v>
+      </c>
+      <c r="AD99">
+        <v>1</v>
+      </c>
+      <c r="AE99">
+        <v>2</v>
+      </c>
+      <c r="AF99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B100">
         <v>2017</v>
@@ -7124,10 +10124,40 @@
       <c r="V100">
         <v>11690053.203500001</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W100">
+        <v>15.393333333333331</v>
+      </c>
+      <c r="X100">
+        <v>8.5033333333333303</v>
+      </c>
+      <c r="Y100">
+        <v>103.4306931672469</v>
+      </c>
+      <c r="Z100">
+        <v>110.9877861757615</v>
+      </c>
+      <c r="AA100">
+        <v>2.8508874145768339E-5</v>
+      </c>
+      <c r="AB100">
+        <v>2.7100664917716049E-5</v>
+      </c>
+      <c r="AC100">
+        <v>1</v>
+      </c>
+      <c r="AD100">
+        <v>1</v>
+      </c>
+      <c r="AE100">
+        <v>2</v>
+      </c>
+      <c r="AF100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B101">
         <v>2019</v>
@@ -7189,10 +10219,40 @@
       <c r="V101">
         <v>6898097.1739999996</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W101">
+        <v>14.72666666666667</v>
+      </c>
+      <c r="X101">
+        <v>18.52999999999999</v>
+      </c>
+      <c r="Y101">
+        <v>49.766120183681828</v>
+      </c>
+      <c r="Z101">
+        <v>57.116040804946003</v>
+      </c>
+      <c r="AA101">
+        <v>8.4041560381368984E-5</v>
+      </c>
+      <c r="AB101">
+        <v>8.4378021282690519E-5</v>
+      </c>
+      <c r="AC101">
+        <v>1</v>
+      </c>
+      <c r="AD101">
+        <v>2</v>
+      </c>
+      <c r="AE101">
+        <v>1</v>
+      </c>
+      <c r="AF101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B102">
         <v>2018</v>
@@ -7254,10 +10314,40 @@
       <c r="V102">
         <v>6898097.1739999996</v>
       </c>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W102">
+        <v>14.72666666666667</v>
+      </c>
+      <c r="X102">
+        <v>18.52999999999999</v>
+      </c>
+      <c r="Y102">
+        <v>71.528746631715691</v>
+      </c>
+      <c r="Z102">
+        <v>57.116040804946003</v>
+      </c>
+      <c r="AA102">
+        <v>8.5253305356561737E-5</v>
+      </c>
+      <c r="AB102">
+        <v>8.4378021282690519E-5</v>
+      </c>
+      <c r="AC102">
+        <v>1</v>
+      </c>
+      <c r="AD102">
+        <v>2</v>
+      </c>
+      <c r="AE102">
+        <v>1</v>
+      </c>
+      <c r="AF102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B103">
         <v>2017</v>
@@ -7319,10 +10409,40 @@
       <c r="V103">
         <v>6898097.1739999996</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W103">
+        <v>14.72666666666667</v>
+      </c>
+      <c r="X103">
+        <v>18.52999999999999</v>
+      </c>
+      <c r="Y103">
+        <v>50.053255599440483</v>
+      </c>
+      <c r="Z103">
+        <v>57.116040804946003</v>
+      </c>
+      <c r="AA103">
+        <v>8.3839198110140836E-5</v>
+      </c>
+      <c r="AB103">
+        <v>8.4378021282690519E-5</v>
+      </c>
+      <c r="AC103">
+        <v>1</v>
+      </c>
+      <c r="AD103">
+        <v>2</v>
+      </c>
+      <c r="AE103">
+        <v>1</v>
+      </c>
+      <c r="AF103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B104">
         <v>2019</v>
@@ -7384,10 +10504,40 @@
       <c r="V104">
         <v>488505</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W104">
+        <v>32.410000000000011</v>
+      </c>
+      <c r="X104">
+        <v>42.44</v>
+      </c>
+      <c r="Y104">
+        <v>120.8383209997851</v>
+      </c>
+      <c r="Z104">
+        <v>124.63964203709961</v>
+      </c>
+      <c r="AA104">
+        <v>3.4562711809051092E-5</v>
+      </c>
+      <c r="AB104">
+        <v>3.3533090903843513E-5</v>
+      </c>
+      <c r="AC104">
+        <v>5</v>
+      </c>
+      <c r="AD104">
+        <v>5</v>
+      </c>
+      <c r="AE104">
+        <v>2</v>
+      </c>
+      <c r="AF104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B105">
         <v>2018</v>
@@ -7449,10 +10599,40 @@
       <c r="V105">
         <v>488505</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W105">
+        <v>32.410000000000011</v>
+      </c>
+      <c r="X105">
+        <v>42.44</v>
+      </c>
+      <c r="Y105">
+        <v>126.4120653831588</v>
+      </c>
+      <c r="Z105">
+        <v>124.63964203709961</v>
+      </c>
+      <c r="AA105">
+        <v>3.0624570446229441E-5</v>
+      </c>
+      <c r="AB105">
+        <v>3.3533090903843513E-5</v>
+      </c>
+      <c r="AC105">
+        <v>5</v>
+      </c>
+      <c r="AD105">
+        <v>5</v>
+      </c>
+      <c r="AE105">
+        <v>2</v>
+      </c>
+      <c r="AF105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B106">
         <v>2017</v>
@@ -7514,10 +10694,40 @@
       <c r="V106">
         <v>488505</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W106">
+        <v>32.410000000000011</v>
+      </c>
+      <c r="X106">
+        <v>42.44</v>
+      </c>
+      <c r="Y106">
+        <v>126.6685397283549</v>
+      </c>
+      <c r="Z106">
+        <v>124.63964203709961</v>
+      </c>
+      <c r="AA106">
+        <v>3.5411990456249979E-5</v>
+      </c>
+      <c r="AB106">
+        <v>3.3533090903843513E-5</v>
+      </c>
+      <c r="AC106">
+        <v>5</v>
+      </c>
+      <c r="AD106">
+        <v>5</v>
+      </c>
+      <c r="AE106">
+        <v>2</v>
+      </c>
+      <c r="AF106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B107">
         <v>2019</v>
@@ -7579,10 +10789,40 @@
       <c r="V107">
         <v>6979300.9500000002</v>
       </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W107">
+        <v>29.486666666666661</v>
+      </c>
+      <c r="X107">
+        <v>31.303333333333331</v>
+      </c>
+      <c r="Y107">
+        <v>154.7924584051645</v>
+      </c>
+      <c r="Z107">
+        <v>149.69104119231309</v>
+      </c>
+      <c r="AA107">
+        <v>7.4455147225573913E-5</v>
+      </c>
+      <c r="AB107">
+        <v>7.7097928518039525E-5</v>
+      </c>
+      <c r="AC107">
+        <v>4</v>
+      </c>
+      <c r="AD107">
+        <v>4</v>
+      </c>
+      <c r="AE107">
+        <v>3</v>
+      </c>
+      <c r="AF107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B108">
         <v>2018</v>
@@ -7644,10 +10884,40 @@
       <c r="V108">
         <v>6979300.9500000002</v>
       </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W108">
+        <v>29.486666666666661</v>
+      </c>
+      <c r="X108">
+        <v>31.303333333333331</v>
+      </c>
+      <c r="Y108">
+        <v>157.43944886056249</v>
+      </c>
+      <c r="Z108">
+        <v>149.69104119231309</v>
+      </c>
+      <c r="AA108">
+        <v>7.8281158092196525E-5</v>
+      </c>
+      <c r="AB108">
+        <v>7.7097928518039525E-5</v>
+      </c>
+      <c r="AC108">
+        <v>4</v>
+      </c>
+      <c r="AD108">
+        <v>4</v>
+      </c>
+      <c r="AE108">
+        <v>3</v>
+      </c>
+      <c r="AF108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B109">
         <v>2017</v>
@@ -7709,10 +10979,40 @@
       <c r="V109">
         <v>6979300.9500000002</v>
       </c>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W109">
+        <v>29.486666666666661</v>
+      </c>
+      <c r="X109">
+        <v>31.303333333333331</v>
+      </c>
+      <c r="Y109">
+        <v>136.84121631121241</v>
+      </c>
+      <c r="Z109">
+        <v>149.69104119231309</v>
+      </c>
+      <c r="AA109">
+        <v>7.8557480236348138E-5</v>
+      </c>
+      <c r="AB109">
+        <v>7.7097928518039525E-5</v>
+      </c>
+      <c r="AC109">
+        <v>4</v>
+      </c>
+      <c r="AD109">
+        <v>4</v>
+      </c>
+      <c r="AE109">
+        <v>3</v>
+      </c>
+      <c r="AF109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B110">
         <v>2019</v>
@@ -7774,10 +11074,40 @@
       <c r="V110">
         <v>2169434.7859999998</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W110">
+        <v>32.649999999999991</v>
+      </c>
+      <c r="X110">
+        <v>35.176666666666662</v>
+      </c>
+      <c r="Y110">
+        <v>199.9717492314609</v>
+      </c>
+      <c r="Z110">
+        <v>203.17886414985639</v>
+      </c>
+      <c r="AA110">
+        <v>6.7154528193773443E-5</v>
+      </c>
+      <c r="AB110">
+        <v>6.6864951080375387E-5</v>
+      </c>
+      <c r="AC110">
+        <v>5</v>
+      </c>
+      <c r="AD110">
+        <v>4</v>
+      </c>
+      <c r="AE110">
+        <v>4</v>
+      </c>
+      <c r="AF110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B111">
         <v>2018</v>
@@ -7839,10 +11169,40 @@
       <c r="V111">
         <v>2169434.7859999998</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W111">
+        <v>32.649999999999991</v>
+      </c>
+      <c r="X111">
+        <v>35.176666666666662</v>
+      </c>
+      <c r="Y111">
+        <v>211.05153515317519</v>
+      </c>
+      <c r="Z111">
+        <v>203.17886414985639</v>
+      </c>
+      <c r="AA111">
+        <v>6.5839954210689309E-5</v>
+      </c>
+      <c r="AB111">
+        <v>6.6864951080375387E-5</v>
+      </c>
+      <c r="AC111">
+        <v>5</v>
+      </c>
+      <c r="AD111">
+        <v>4</v>
+      </c>
+      <c r="AE111">
+        <v>4</v>
+      </c>
+      <c r="AF111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B112">
         <v>2017</v>
@@ -7904,10 +11264,40 @@
       <c r="V112">
         <v>2169434.7859999998</v>
       </c>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W112">
+        <v>32.649999999999991</v>
+      </c>
+      <c r="X112">
+        <v>35.176666666666662</v>
+      </c>
+      <c r="Y112">
+        <v>198.513308064933</v>
+      </c>
+      <c r="Z112">
+        <v>203.17886414985639</v>
+      </c>
+      <c r="AA112">
+        <v>6.7600370836663396E-5</v>
+      </c>
+      <c r="AB112">
+        <v>6.6864951080375387E-5</v>
+      </c>
+      <c r="AC112">
+        <v>5</v>
+      </c>
+      <c r="AD112">
+        <v>4</v>
+      </c>
+      <c r="AE112">
+        <v>4</v>
+      </c>
+      <c r="AF112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B113">
         <v>2019</v>
@@ -7969,10 +11359,40 @@
       <c r="V113">
         <v>2608137.7710000002</v>
       </c>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W113">
+        <v>29.436666666666671</v>
+      </c>
+      <c r="X113">
+        <v>31.88666666666667</v>
+      </c>
+      <c r="Y113">
+        <v>223.3213756866374</v>
+      </c>
+      <c r="Z113">
+        <v>216.15702166320361</v>
+      </c>
+      <c r="AA113">
+        <v>5.8821282665551947E-5</v>
+      </c>
+      <c r="AB113">
+        <v>6.0780156926239253E-5</v>
+      </c>
+      <c r="AC113">
+        <v>4</v>
+      </c>
+      <c r="AD113">
+        <v>4</v>
+      </c>
+      <c r="AE113">
+        <v>5</v>
+      </c>
+      <c r="AF113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B114">
         <v>2018</v>
@@ -8034,10 +11454,40 @@
       <c r="V114">
         <v>2608137.7710000002</v>
       </c>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W114">
+        <v>29.436666666666671</v>
+      </c>
+      <c r="X114">
+        <v>31.88666666666667</v>
+      </c>
+      <c r="Y114">
+        <v>229.57800337764439</v>
+      </c>
+      <c r="Z114">
+        <v>216.15702166320361</v>
+      </c>
+      <c r="AA114">
+        <v>5.9884280364507961E-5</v>
+      </c>
+      <c r="AB114">
+        <v>6.0780156926239253E-5</v>
+      </c>
+      <c r="AC114">
+        <v>4</v>
+      </c>
+      <c r="AD114">
+        <v>4</v>
+      </c>
+      <c r="AE114">
+        <v>5</v>
+      </c>
+      <c r="AF114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B115">
         <v>2017</v>
@@ -8099,10 +11549,40 @@
       <c r="V115">
         <v>2608137.7710000002</v>
       </c>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W115">
+        <v>29.436666666666671</v>
+      </c>
+      <c r="X115">
+        <v>31.88666666666667</v>
+      </c>
+      <c r="Y115">
+        <v>195.57168592532909</v>
+      </c>
+      <c r="Z115">
+        <v>216.15702166320361</v>
+      </c>
+      <c r="AA115">
+        <v>6.3634907748657825E-5</v>
+      </c>
+      <c r="AB115">
+        <v>6.0780156926239253E-5</v>
+      </c>
+      <c r="AC115">
+        <v>4</v>
+      </c>
+      <c r="AD115">
+        <v>4</v>
+      </c>
+      <c r="AE115">
+        <v>5</v>
+      </c>
+      <c r="AF115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B116">
         <v>2019</v>
@@ -8164,10 +11644,40 @@
       <c r="V116">
         <v>8439425.75</v>
       </c>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W116">
+        <v>27.646666666666661</v>
+      </c>
+      <c r="X116">
+        <v>25.783333333333331</v>
+      </c>
+      <c r="Y116">
+        <v>155.26257387832339</v>
+      </c>
+      <c r="Z116">
+        <v>153.4072513168328</v>
+      </c>
+      <c r="AA116">
+        <v>3.9900209829899672E-5</v>
+      </c>
+      <c r="AB116">
+        <v>4.2116743912108863E-5</v>
+      </c>
+      <c r="AC116">
+        <v>4</v>
+      </c>
+      <c r="AD116">
+        <v>3</v>
+      </c>
+      <c r="AE116">
+        <v>3</v>
+      </c>
+      <c r="AF116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B117">
         <v>2018</v>
@@ -8229,10 +11739,40 @@
       <c r="V117">
         <v>8439425.75</v>
       </c>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W117">
+        <v>27.646666666666661</v>
+      </c>
+      <c r="X117">
+        <v>25.783333333333331</v>
+      </c>
+      <c r="Y117">
+        <v>162.44712360909151</v>
+      </c>
+      <c r="Z117">
+        <v>153.4072513168328</v>
+      </c>
+      <c r="AA117">
+        <v>4.2986253016784727E-5</v>
+      </c>
+      <c r="AB117">
+        <v>4.2116743912108863E-5</v>
+      </c>
+      <c r="AC117">
+        <v>4</v>
+      </c>
+      <c r="AD117">
+        <v>3</v>
+      </c>
+      <c r="AE117">
+        <v>3</v>
+      </c>
+      <c r="AF117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B118">
         <v>2017</v>
@@ -8294,10 +11834,40 @@
       <c r="V118">
         <v>8439425.75</v>
       </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W118">
+        <v>27.646666666666661</v>
+      </c>
+      <c r="X118">
+        <v>25.783333333333331</v>
+      </c>
+      <c r="Y118">
+        <v>142.51205646308341</v>
+      </c>
+      <c r="Z118">
+        <v>153.4072513168328</v>
+      </c>
+      <c r="AA118">
+        <v>4.3463768889642168E-5</v>
+      </c>
+      <c r="AB118">
+        <v>4.2116743912108863E-5</v>
+      </c>
+      <c r="AC118">
+        <v>4</v>
+      </c>
+      <c r="AD118">
+        <v>3</v>
+      </c>
+      <c r="AE118">
+        <v>3</v>
+      </c>
+      <c r="AF118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B119">
         <v>2019</v>
@@ -8359,10 +11929,40 @@
       <c r="V119">
         <v>630495.14</v>
       </c>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W119">
+        <v>24.44</v>
+      </c>
+      <c r="X119">
+        <v>25.806666666666668</v>
+      </c>
+      <c r="Y119">
+        <v>249.13436921972149</v>
+      </c>
+      <c r="Z119">
+        <v>234.91978965399579</v>
+      </c>
+      <c r="AA119">
+        <v>6.8914144249032205E-5</v>
+      </c>
+      <c r="AB119">
+        <v>6.8752924003210678E-5</v>
+      </c>
+      <c r="AC119">
+        <v>3</v>
+      </c>
+      <c r="AD119">
+        <v>3</v>
+      </c>
+      <c r="AE119">
+        <v>5</v>
+      </c>
+      <c r="AF119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B120">
         <v>2018</v>
@@ -8424,10 +12024,40 @@
       <c r="V120">
         <v>630495.14</v>
       </c>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W120">
+        <v>24.44</v>
+      </c>
+      <c r="X120">
+        <v>25.806666666666668</v>
+      </c>
+      <c r="Y120">
+        <v>260.47551452973931</v>
+      </c>
+      <c r="Z120">
+        <v>234.91978965399579</v>
+      </c>
+      <c r="AA120">
+        <v>6.9077985173315922E-5</v>
+      </c>
+      <c r="AB120">
+        <v>6.8752924003210678E-5</v>
+      </c>
+      <c r="AC120">
+        <v>3</v>
+      </c>
+      <c r="AD120">
+        <v>3</v>
+      </c>
+      <c r="AE120">
+        <v>5</v>
+      </c>
+      <c r="AF120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B121">
         <v>2017</v>
@@ -8489,10 +12119,40 @@
       <c r="V121">
         <v>630495.14</v>
       </c>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W121">
+        <v>24.44</v>
+      </c>
+      <c r="X121">
+        <v>25.806666666666668</v>
+      </c>
+      <c r="Y121">
+        <v>195.1494852125268</v>
+      </c>
+      <c r="Z121">
+        <v>234.91978965399579</v>
+      </c>
+      <c r="AA121">
+        <v>6.8266642587283907E-5</v>
+      </c>
+      <c r="AB121">
+        <v>6.8752924003210678E-5</v>
+      </c>
+      <c r="AC121">
+        <v>3</v>
+      </c>
+      <c r="AD121">
+        <v>3</v>
+      </c>
+      <c r="AE121">
+        <v>5</v>
+      </c>
+      <c r="AF121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B122">
         <v>2019</v>
@@ -8554,10 +12214,40 @@
       <c r="V122">
         <v>3411207.3105000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W122">
+        <v>21.946666666666669</v>
+      </c>
+      <c r="X122">
+        <v>23.62</v>
+      </c>
+      <c r="Y122">
+        <v>198.61372567845871</v>
+      </c>
+      <c r="Z122">
+        <v>164.79514538337139</v>
+      </c>
+      <c r="AA122">
+        <v>7.0162234629440683E-5</v>
+      </c>
+      <c r="AB122">
+        <v>7.3852045135932166E-5</v>
+      </c>
+      <c r="AC122">
+        <v>2</v>
+      </c>
+      <c r="AD122">
+        <v>3</v>
+      </c>
+      <c r="AE122">
+        <v>3</v>
+      </c>
+      <c r="AF122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B123">
         <v>2018</v>
@@ -8619,10 +12309,40 @@
       <c r="V123">
         <v>3411207.3105000001</v>
       </c>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W123">
+        <v>21.946666666666669</v>
+      </c>
+      <c r="X123">
+        <v>23.62</v>
+      </c>
+      <c r="Y123">
+        <v>173.08674884185109</v>
+      </c>
+      <c r="Z123">
+        <v>164.79514538337139</v>
+      </c>
+      <c r="AA123">
+        <v>7.4049754431947153E-5</v>
+      </c>
+      <c r="AB123">
+        <v>7.3852045135932166E-5</v>
+      </c>
+      <c r="AC123">
+        <v>2</v>
+      </c>
+      <c r="AD123">
+        <v>3</v>
+      </c>
+      <c r="AE123">
+        <v>3</v>
+      </c>
+      <c r="AF123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B124">
         <v>2017</v>
@@ -8684,10 +12404,40 @@
       <c r="V124">
         <v>3411207.3105000001</v>
       </c>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W124">
+        <v>21.946666666666669</v>
+      </c>
+      <c r="X124">
+        <v>23.62</v>
+      </c>
+      <c r="Y124">
+        <v>122.68496162980421</v>
+      </c>
+      <c r="Z124">
+        <v>164.79514538337139</v>
+      </c>
+      <c r="AA124">
+        <v>7.7344146346408675E-5</v>
+      </c>
+      <c r="AB124">
+        <v>7.3852045135932166E-5</v>
+      </c>
+      <c r="AC124">
+        <v>2</v>
+      </c>
+      <c r="AD124">
+        <v>3</v>
+      </c>
+      <c r="AE124">
+        <v>3</v>
+      </c>
+      <c r="AF124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B125">
         <v>2019</v>
@@ -8749,10 +12499,40 @@
       <c r="V125">
         <v>586590.44199999992</v>
       </c>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W125">
+        <v>32.876666666666672</v>
+      </c>
+      <c r="X125">
+        <v>43.82</v>
+      </c>
+      <c r="Y125">
+        <v>114.3098509607151</v>
+      </c>
+      <c r="Z125">
+        <v>122.7663093539916</v>
+      </c>
+      <c r="AA125">
+        <v>5.0539321354154887E-5</v>
+      </c>
+      <c r="AB125">
+        <v>5.1659262036663412E-5</v>
+      </c>
+      <c r="AC125">
+        <v>5</v>
+      </c>
+      <c r="AD125">
+        <v>5</v>
+      </c>
+      <c r="AE125">
+        <v>2</v>
+      </c>
+      <c r="AF125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B126">
         <v>2018</v>
@@ -8814,10 +12594,40 @@
       <c r="V126">
         <v>586590.44199999992</v>
       </c>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W126">
+        <v>32.876666666666672</v>
+      </c>
+      <c r="X126">
+        <v>43.82</v>
+      </c>
+      <c r="Y126">
+        <v>132.8156178855707</v>
+      </c>
+      <c r="Z126">
+        <v>122.7663093539916</v>
+      </c>
+      <c r="AA126">
+        <v>5.3359878785447123E-5</v>
+      </c>
+      <c r="AB126">
+        <v>5.1659262036663412E-5</v>
+      </c>
+      <c r="AC126">
+        <v>5</v>
+      </c>
+      <c r="AD126">
+        <v>5</v>
+      </c>
+      <c r="AE126">
+        <v>2</v>
+      </c>
+      <c r="AF126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B127">
         <v>2017</v>
@@ -8879,10 +12689,40 @@
       <c r="V127">
         <v>586590.44199999992</v>
       </c>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W127">
+        <v>32.876666666666672</v>
+      </c>
+      <c r="X127">
+        <v>43.82</v>
+      </c>
+      <c r="Y127">
+        <v>121.17345921568899</v>
+      </c>
+      <c r="Z127">
+        <v>122.7663093539916</v>
+      </c>
+      <c r="AA127">
+        <v>5.1078585970388193E-5</v>
+      </c>
+      <c r="AB127">
+        <v>5.1659262036663412E-5</v>
+      </c>
+      <c r="AC127">
+        <v>5</v>
+      </c>
+      <c r="AD127">
+        <v>5</v>
+      </c>
+      <c r="AE127">
+        <v>2</v>
+      </c>
+      <c r="AF127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B128">
         <v>2019</v>
@@ -8944,10 +12784,40 @@
       <c r="V128">
         <v>4120231.2829999998</v>
       </c>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W128">
+        <v>24.77</v>
+      </c>
+      <c r="X128">
+        <v>25.986666666666661</v>
+      </c>
+      <c r="Y128">
+        <v>144.71197781059129</v>
+      </c>
+      <c r="Z128">
+        <v>133.3052120802511</v>
+      </c>
+      <c r="AA128">
+        <v>5.4720895152172653E-5</v>
+      </c>
+      <c r="AB128">
+        <v>5.6638878829104889E-5</v>
+      </c>
+      <c r="AC128">
+        <v>3</v>
+      </c>
+      <c r="AD128">
+        <v>3</v>
+      </c>
+      <c r="AE128">
+        <v>3</v>
+      </c>
+      <c r="AF128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B129">
         <v>2018</v>
@@ -9009,10 +12879,40 @@
       <c r="V129">
         <v>4120231.2829999998</v>
       </c>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W129">
+        <v>24.77</v>
+      </c>
+      <c r="X129">
+        <v>25.986666666666661</v>
+      </c>
+      <c r="Y129">
+        <v>142.5252974081649</v>
+      </c>
+      <c r="Z129">
+        <v>133.3052120802511</v>
+      </c>
+      <c r="AA129">
+        <v>5.684505454510357E-5</v>
+      </c>
+      <c r="AB129">
+        <v>5.6638878829104889E-5</v>
+      </c>
+      <c r="AC129">
+        <v>3</v>
+      </c>
+      <c r="AD129">
+        <v>3</v>
+      </c>
+      <c r="AE129">
+        <v>3</v>
+      </c>
+      <c r="AF129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B130">
         <v>2017</v>
@@ -9074,10 +12974,40 @@
       <c r="V130">
         <v>4120231.2829999998</v>
       </c>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W130">
+        <v>24.77</v>
+      </c>
+      <c r="X130">
+        <v>25.986666666666661</v>
+      </c>
+      <c r="Y130">
+        <v>112.67836102199701</v>
+      </c>
+      <c r="Z130">
+        <v>133.3052120802511</v>
+      </c>
+      <c r="AA130">
+        <v>5.8350686790038457E-5</v>
+      </c>
+      <c r="AB130">
+        <v>5.6638878829104889E-5</v>
+      </c>
+      <c r="AC130">
+        <v>3</v>
+      </c>
+      <c r="AD130">
+        <v>3</v>
+      </c>
+      <c r="AE130">
+        <v>3</v>
+      </c>
+      <c r="AF130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B131">
         <v>2019</v>
@@ -9130,10 +13060,34 @@
       <c r="V131">
         <v>15804367.9955</v>
       </c>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W131">
+        <v>31.573333333333341</v>
+      </c>
+      <c r="X131">
+        <v>26.72</v>
+      </c>
+      <c r="Y131">
+        <v>239.13123429396799</v>
+      </c>
+      <c r="Z131">
+        <v>243.41251777749179</v>
+      </c>
+      <c r="AC131">
+        <v>5</v>
+      </c>
+      <c r="AD131">
+        <v>3</v>
+      </c>
+      <c r="AE131">
+        <v>5</v>
+      </c>
+      <c r="AF131" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B132">
         <v>2018</v>
@@ -9186,10 +13140,34 @@
       <c r="V132">
         <v>15804367.9955</v>
       </c>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W132">
+        <v>31.573333333333341</v>
+      </c>
+      <c r="X132">
+        <v>26.72</v>
+      </c>
+      <c r="Y132">
+        <v>266.41443107366678</v>
+      </c>
+      <c r="Z132">
+        <v>243.41251777749179</v>
+      </c>
+      <c r="AC132">
+        <v>5</v>
+      </c>
+      <c r="AD132">
+        <v>3</v>
+      </c>
+      <c r="AE132">
+        <v>5</v>
+      </c>
+      <c r="AF132" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B133">
         <v>2017</v>
@@ -9242,10 +13220,34 @@
       <c r="V133">
         <v>15804367.9955</v>
       </c>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W133">
+        <v>31.573333333333341</v>
+      </c>
+      <c r="X133">
+        <v>26.72</v>
+      </c>
+      <c r="Y133">
+        <v>224.6918879648407</v>
+      </c>
+      <c r="Z133">
+        <v>243.41251777749179</v>
+      </c>
+      <c r="AC133">
+        <v>5</v>
+      </c>
+      <c r="AD133">
+        <v>3</v>
+      </c>
+      <c r="AE133">
+        <v>5</v>
+      </c>
+      <c r="AF133" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="134" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B134">
         <v>2019</v>
@@ -9307,10 +13309,40 @@
       <c r="V134">
         <v>1882164.8174999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W134">
+        <v>22.45999999999999</v>
+      </c>
+      <c r="X134">
+        <v>19.45999999999999</v>
+      </c>
+      <c r="Y134">
+        <v>153.7450558577344</v>
+      </c>
+      <c r="Z134">
+        <v>134.69998658428679</v>
+      </c>
+      <c r="AA134">
+        <v>4.917453010564778E-5</v>
+      </c>
+      <c r="AB134">
+        <v>4.9606697300741988E-5</v>
+      </c>
+      <c r="AC134">
+        <v>2</v>
+      </c>
+      <c r="AD134">
+        <v>2</v>
+      </c>
+      <c r="AE134">
+        <v>3</v>
+      </c>
+      <c r="AF134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B135">
         <v>2018</v>
@@ -9372,10 +13404,40 @@
       <c r="V135">
         <v>1882164.8174999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W135">
+        <v>22.45999999999999</v>
+      </c>
+      <c r="X135">
+        <v>19.45999999999999</v>
+      </c>
+      <c r="Y135">
+        <v>138.58003431731879</v>
+      </c>
+      <c r="Z135">
+        <v>134.69998658428679</v>
+      </c>
+      <c r="AA135">
+        <v>4.8790549876030938E-5</v>
+      </c>
+      <c r="AB135">
+        <v>4.9606697300741988E-5</v>
+      </c>
+      <c r="AC135">
+        <v>2</v>
+      </c>
+      <c r="AD135">
+        <v>2</v>
+      </c>
+      <c r="AE135">
+        <v>3</v>
+      </c>
+      <c r="AF135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B136">
         <v>2017</v>
@@ -9437,10 +13499,40 @@
       <c r="V136">
         <v>1882164.8174999999</v>
       </c>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W136">
+        <v>22.45999999999999</v>
+      </c>
+      <c r="X136">
+        <v>19.45999999999999</v>
+      </c>
+      <c r="Y136">
+        <v>111.77486957780729</v>
+      </c>
+      <c r="Z136">
+        <v>134.69998658428679</v>
+      </c>
+      <c r="AA136">
+        <v>5.0855011920547218E-5</v>
+      </c>
+      <c r="AB136">
+        <v>4.9606697300741988E-5</v>
+      </c>
+      <c r="AC136">
+        <v>2</v>
+      </c>
+      <c r="AD136">
+        <v>2</v>
+      </c>
+      <c r="AE136">
+        <v>3</v>
+      </c>
+      <c r="AF136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B137">
         <v>2019</v>
@@ -9502,10 +13594,40 @@
       <c r="V137">
         <v>513063.38400000002</v>
       </c>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W137">
+        <v>33.600000000000009</v>
+      </c>
+      <c r="X137">
+        <v>37.453333333333333</v>
+      </c>
+      <c r="Y137">
+        <v>103.1209157580421</v>
+      </c>
+      <c r="Z137">
+        <v>105.28157212378009</v>
+      </c>
+      <c r="AA137">
+        <v>4.7753165796126463E-5</v>
+      </c>
+      <c r="AB137">
+        <v>5.1166405851580178E-5</v>
+      </c>
+      <c r="AC137">
+        <v>5</v>
+      </c>
+      <c r="AD137">
+        <v>4</v>
+      </c>
+      <c r="AE137">
+        <v>2</v>
+      </c>
+      <c r="AF137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B138">
         <v>2018</v>
@@ -9567,10 +13689,40 @@
       <c r="V138">
         <v>513063.38400000002</v>
       </c>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W138">
+        <v>33.600000000000009</v>
+      </c>
+      <c r="X138">
+        <v>37.453333333333333</v>
+      </c>
+      <c r="Y138">
+        <v>104.4739045341813</v>
+      </c>
+      <c r="Z138">
+        <v>105.28157212378009</v>
+      </c>
+      <c r="AA138">
+        <v>5.0857136985075963E-5</v>
+      </c>
+      <c r="AB138">
+        <v>5.1166405851580178E-5</v>
+      </c>
+      <c r="AC138">
+        <v>5</v>
+      </c>
+      <c r="AD138">
+        <v>4</v>
+      </c>
+      <c r="AE138">
+        <v>2</v>
+      </c>
+      <c r="AF138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B139">
         <v>2017</v>
@@ -9632,10 +13784,40 @@
       <c r="V139">
         <v>513063.38400000002</v>
       </c>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W139">
+        <v>33.600000000000009</v>
+      </c>
+      <c r="X139">
+        <v>37.453333333333333</v>
+      </c>
+      <c r="Y139">
+        <v>108.24989607911679</v>
+      </c>
+      <c r="Z139">
+        <v>105.28157212378009</v>
+      </c>
+      <c r="AA139">
+        <v>5.4888914773538101E-5</v>
+      </c>
+      <c r="AB139">
+        <v>5.1166405851580178E-5</v>
+      </c>
+      <c r="AC139">
+        <v>5</v>
+      </c>
+      <c r="AD139">
+        <v>4</v>
+      </c>
+      <c r="AE139">
+        <v>2</v>
+      </c>
+      <c r="AF139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B140">
         <v>2019</v>
@@ -9697,10 +13879,40 @@
       <c r="V140">
         <v>5305318.7975000003</v>
       </c>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W140">
+        <v>21.486666666666661</v>
+      </c>
+      <c r="X140">
+        <v>21.97333333333334</v>
+      </c>
+      <c r="Y140">
+        <v>127.303032820244</v>
+      </c>
+      <c r="Z140">
+        <v>123.9853408325427</v>
+      </c>
+      <c r="AA140">
+        <v>5.8957737736708438E-5</v>
+      </c>
+      <c r="AB140">
+        <v>6.2047326878398763E-5</v>
+      </c>
+      <c r="AC140">
+        <v>2</v>
+      </c>
+      <c r="AD140">
+        <v>2</v>
+      </c>
+      <c r="AE140">
+        <v>2</v>
+      </c>
+      <c r="AF140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B141">
         <v>2018</v>
@@ -9762,10 +13974,40 @@
       <c r="V141">
         <v>5305318.7975000003</v>
       </c>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W141">
+        <v>21.486666666666661</v>
+      </c>
+      <c r="X141">
+        <v>21.97333333333334</v>
+      </c>
+      <c r="Y141">
+        <v>134.1620085743773</v>
+      </c>
+      <c r="Z141">
+        <v>123.9853408325427</v>
+      </c>
+      <c r="AA141">
+        <v>6.2838759751360251E-5</v>
+      </c>
+      <c r="AB141">
+        <v>6.2047326878398763E-5</v>
+      </c>
+      <c r="AC141">
+        <v>2</v>
+      </c>
+      <c r="AD141">
+        <v>2</v>
+      </c>
+      <c r="AE141">
+        <v>2</v>
+      </c>
+      <c r="AF141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B142">
         <v>2017</v>
@@ -9827,10 +14069,40 @@
       <c r="V142">
         <v>5305318.7975000003</v>
       </c>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W142">
+        <v>21.486666666666661</v>
+      </c>
+      <c r="X142">
+        <v>21.97333333333334</v>
+      </c>
+      <c r="Y142">
+        <v>110.4909811030069</v>
+      </c>
+      <c r="Z142">
+        <v>123.9853408325427</v>
+      </c>
+      <c r="AA142">
+        <v>6.4345483147127566E-5</v>
+      </c>
+      <c r="AB142">
+        <v>6.2047326878398763E-5</v>
+      </c>
+      <c r="AC142">
+        <v>2</v>
+      </c>
+      <c r="AD142">
+        <v>2</v>
+      </c>
+      <c r="AE142">
+        <v>2</v>
+      </c>
+      <c r="AF142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B143">
         <v>2019</v>
@@ -9892,10 +14164,40 @@
       <c r="V143">
         <v>4572034.0920000002</v>
       </c>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W143">
+        <v>29.986666666666661</v>
+      </c>
+      <c r="X143">
+        <v>33.476666666666667</v>
+      </c>
+      <c r="Y143">
+        <v>267.04880703676082</v>
+      </c>
+      <c r="Z143">
+        <v>210.37450122029111</v>
+      </c>
+      <c r="AA143">
+        <v>5.8118207500560599E-5</v>
+      </c>
+      <c r="AB143">
+        <v>5.768947909823056E-5</v>
+      </c>
+      <c r="AC143">
+        <v>4</v>
+      </c>
+      <c r="AD143">
+        <v>4</v>
+      </c>
+      <c r="AE143">
+        <v>5</v>
+      </c>
+      <c r="AF143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B144">
         <v>2018</v>
@@ -9957,10 +14259,40 @@
       <c r="V144">
         <v>4572034.0920000002</v>
       </c>
-    </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W144">
+        <v>29.986666666666661</v>
+      </c>
+      <c r="X144">
+        <v>33.476666666666667</v>
+      </c>
+      <c r="Y144">
+        <v>211.19498555130201</v>
+      </c>
+      <c r="Z144">
+        <v>210.37450122029111</v>
+      </c>
+      <c r="AA144">
+        <v>5.7152367252637539E-5</v>
+      </c>
+      <c r="AB144">
+        <v>5.768947909823056E-5</v>
+      </c>
+      <c r="AC144">
+        <v>4</v>
+      </c>
+      <c r="AD144">
+        <v>4</v>
+      </c>
+      <c r="AE144">
+        <v>5</v>
+      </c>
+      <c r="AF144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B145">
         <v>2017</v>
@@ -10022,10 +14354,40 @@
       <c r="V145">
         <v>4572034.0920000002</v>
       </c>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W145">
+        <v>29.986666666666661</v>
+      </c>
+      <c r="X145">
+        <v>33.476666666666667</v>
+      </c>
+      <c r="Y145">
+        <v>152.87971107281061</v>
+      </c>
+      <c r="Z145">
+        <v>210.37450122029111</v>
+      </c>
+      <c r="AA145">
+        <v>5.7797862541493561E-5</v>
+      </c>
+      <c r="AB145">
+        <v>5.768947909823056E-5</v>
+      </c>
+      <c r="AC145">
+        <v>4</v>
+      </c>
+      <c r="AD145">
+        <v>4</v>
+      </c>
+      <c r="AE145">
+        <v>5</v>
+      </c>
+      <c r="AF145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B146">
         <v>2019</v>
@@ -10087,10 +14449,40 @@
       <c r="V146">
         <v>1037644.694</v>
       </c>
-    </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W146">
+        <v>30.99666666666667</v>
+      </c>
+      <c r="X146">
+        <v>30.36999999999999</v>
+      </c>
+      <c r="Y146">
+        <v>185.8508371074463</v>
+      </c>
+      <c r="Z146">
+        <v>196.94733034825629</v>
+      </c>
+      <c r="AA146">
+        <v>4.9383329914956538E-5</v>
+      </c>
+      <c r="AB146">
+        <v>5.3315033261510008E-5</v>
+      </c>
+      <c r="AC146">
+        <v>5</v>
+      </c>
+      <c r="AD146">
+        <v>3</v>
+      </c>
+      <c r="AE146">
+        <v>4</v>
+      </c>
+      <c r="AF146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B147">
         <v>2018</v>
@@ -10152,10 +14544,40 @@
       <c r="V147">
         <v>1037644.694</v>
       </c>
-    </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W147">
+        <v>30.99666666666667</v>
+      </c>
+      <c r="X147">
+        <v>30.36999999999999</v>
+      </c>
+      <c r="Y147">
+        <v>196.96178584227411</v>
+      </c>
+      <c r="Z147">
+        <v>196.94733034825629</v>
+      </c>
+      <c r="AA147">
+        <v>5.3414435301570872E-5</v>
+      </c>
+      <c r="AB147">
+        <v>5.3315033261510008E-5</v>
+      </c>
+      <c r="AC147">
+        <v>5</v>
+      </c>
+      <c r="AD147">
+        <v>3</v>
+      </c>
+      <c r="AE147">
+        <v>4</v>
+      </c>
+      <c r="AF147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B148">
         <v>2017</v>
@@ -10217,10 +14639,40 @@
       <c r="V148">
         <v>1037644.694</v>
       </c>
-    </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W148">
+        <v>30.99666666666667</v>
+      </c>
+      <c r="X148">
+        <v>30.36999999999999</v>
+      </c>
+      <c r="Y148">
+        <v>208.02936809504851</v>
+      </c>
+      <c r="Z148">
+        <v>196.94733034825629</v>
+      </c>
+      <c r="AA148">
+        <v>5.7147334568002602E-5</v>
+      </c>
+      <c r="AB148">
+        <v>5.3315033261510008E-5</v>
+      </c>
+      <c r="AC148">
+        <v>5</v>
+      </c>
+      <c r="AD148">
+        <v>3</v>
+      </c>
+      <c r="AE148">
+        <v>4</v>
+      </c>
+      <c r="AF148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B149">
         <v>2019</v>
@@ -10282,10 +14734,40 @@
       <c r="V149">
         <v>3694704.8939999999</v>
       </c>
-    </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W149">
+        <v>29.00333333333333</v>
+      </c>
+      <c r="X149">
+        <v>32.916666666666671</v>
+      </c>
+      <c r="Y149">
+        <v>131.45720481999609</v>
+      </c>
+      <c r="Z149">
+        <v>128.88648304225481</v>
+      </c>
+      <c r="AA149">
+        <v>4.4612319649434897E-5</v>
+      </c>
+      <c r="AB149">
+        <v>4.4542781000602387E-5</v>
+      </c>
+      <c r="AC149">
+        <v>4</v>
+      </c>
+      <c r="AD149">
+        <v>4</v>
+      </c>
+      <c r="AE149">
+        <v>2</v>
+      </c>
+      <c r="AF149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B150">
         <v>2018</v>
@@ -10347,10 +14829,40 @@
       <c r="V150">
         <v>3694704.8939999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W150">
+        <v>29.00333333333333</v>
+      </c>
+      <c r="X150">
+        <v>32.916666666666671</v>
+      </c>
+      <c r="Y150">
+        <v>134.49778108313521</v>
+      </c>
+      <c r="Z150">
+        <v>128.88648304225481</v>
+      </c>
+      <c r="AA150">
+        <v>4.4484191920136287E-5</v>
+      </c>
+      <c r="AB150">
+        <v>4.4542781000602387E-5</v>
+      </c>
+      <c r="AC150">
+        <v>4</v>
+      </c>
+      <c r="AD150">
+        <v>4</v>
+      </c>
+      <c r="AE150">
+        <v>2</v>
+      </c>
+      <c r="AF150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B151">
         <v>2017</v>
@@ -10412,10 +14924,40 @@
       <c r="V151">
         <v>3694704.8939999999</v>
       </c>
-    </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W151">
+        <v>29.00333333333333</v>
+      </c>
+      <c r="X151">
+        <v>32.916666666666671</v>
+      </c>
+      <c r="Y151">
+        <v>120.704463223633</v>
+      </c>
+      <c r="Z151">
+        <v>128.88648304225481</v>
+      </c>
+      <c r="AA151">
+        <v>4.4531831432235991E-5</v>
+      </c>
+      <c r="AB151">
+        <v>4.4542781000602387E-5</v>
+      </c>
+      <c r="AC151">
+        <v>4</v>
+      </c>
+      <c r="AD151">
+        <v>4</v>
+      </c>
+      <c r="AE151">
+        <v>2</v>
+      </c>
+      <c r="AF151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B152">
         <v>2019</v>
@@ -10477,10 +15019,40 @@
       <c r="V152">
         <v>396450.59100000001</v>
       </c>
-    </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W152">
+        <v>30.266666666666669</v>
+      </c>
+      <c r="X152">
+        <v>33.186666666666667</v>
+      </c>
+      <c r="Y152">
+        <v>88.702357363871343</v>
+      </c>
+      <c r="Z152">
+        <v>116.4894542936877</v>
+      </c>
+      <c r="AA152">
+        <v>4.1490399982806863E-5</v>
+      </c>
+      <c r="AB152">
+        <v>4.7657357726322673E-5</v>
+      </c>
+      <c r="AC152">
+        <v>5</v>
+      </c>
+      <c r="AD152">
+        <v>4</v>
+      </c>
+      <c r="AE152">
+        <v>2</v>
+      </c>
+      <c r="AF152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B153">
         <v>2018</v>
@@ -10542,10 +15114,40 @@
       <c r="V153">
         <v>396450.59100000001</v>
       </c>
-    </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W153">
+        <v>30.266666666666669</v>
+      </c>
+      <c r="X153">
+        <v>33.186666666666667</v>
+      </c>
+      <c r="Y153">
+        <v>132.0501777231554</v>
+      </c>
+      <c r="Z153">
+        <v>116.4894542936877</v>
+      </c>
+      <c r="AA153">
+        <v>5.1068497345234447E-5</v>
+      </c>
+      <c r="AB153">
+        <v>4.7657357726322673E-5</v>
+      </c>
+      <c r="AC153">
+        <v>5</v>
+      </c>
+      <c r="AD153">
+        <v>4</v>
+      </c>
+      <c r="AE153">
+        <v>2</v>
+      </c>
+      <c r="AF153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B154">
         <v>2017</v>
@@ -10607,10 +15209,40 @@
       <c r="V154">
         <v>396450.59100000001</v>
       </c>
-    </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W154">
+        <v>30.266666666666669</v>
+      </c>
+      <c r="X154">
+        <v>33.186666666666667</v>
+      </c>
+      <c r="Y154">
+        <v>128.7158277940365</v>
+      </c>
+      <c r="Z154">
+        <v>116.4894542936877</v>
+      </c>
+      <c r="AA154">
+        <v>5.0413175850926702E-5</v>
+      </c>
+      <c r="AB154">
+        <v>4.7657357726322673E-5</v>
+      </c>
+      <c r="AC154">
+        <v>5</v>
+      </c>
+      <c r="AD154">
+        <v>4</v>
+      </c>
+      <c r="AE154">
+        <v>2</v>
+      </c>
+      <c r="AF154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B155">
         <v>2019</v>
@@ -10666,10 +15298,34 @@
       <c r="S155">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W155">
+        <v>24.603333333333339</v>
+      </c>
+      <c r="X155">
+        <v>23.679999999999989</v>
+      </c>
+      <c r="AA155">
+        <v>4.4737156004178538E-5</v>
+      </c>
+      <c r="AB155">
+        <v>4.6878517910575497E-5</v>
+      </c>
+      <c r="AC155">
+        <v>3</v>
+      </c>
+      <c r="AD155">
+        <v>3</v>
+      </c>
+      <c r="AE155" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B156">
         <v>2018</v>
@@ -10725,10 +15381,34 @@
       <c r="S156">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W156">
+        <v>24.603333333333339</v>
+      </c>
+      <c r="X156">
+        <v>23.679999999999989</v>
+      </c>
+      <c r="AA156">
+        <v>4.7092085969307962E-5</v>
+      </c>
+      <c r="AB156">
+        <v>4.6878517910575497E-5</v>
+      </c>
+      <c r="AC156">
+        <v>3</v>
+      </c>
+      <c r="AD156">
+        <v>3</v>
+      </c>
+      <c r="AE156" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B157">
         <v>2017</v>
@@ -10784,10 +15464,34 @@
       <c r="S157">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W157">
+        <v>24.603333333333339</v>
+      </c>
+      <c r="X157">
+        <v>23.679999999999989</v>
+      </c>
+      <c r="AA157">
+        <v>4.8806311758240012E-5</v>
+      </c>
+      <c r="AB157">
+        <v>4.6878517910575497E-5</v>
+      </c>
+      <c r="AC157">
+        <v>3</v>
+      </c>
+      <c r="AD157">
+        <v>3</v>
+      </c>
+      <c r="AE157" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B158">
         <v>2019</v>
@@ -10834,10 +15538,34 @@
       <c r="Q158">
         <v>70.290000000000006</v>
       </c>
-    </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W158">
+        <v>23.913333333333341</v>
+      </c>
+      <c r="X158">
+        <v>22.72666666666667</v>
+      </c>
+      <c r="AA158">
+        <v>4.909872290228872E-5</v>
+      </c>
+      <c r="AB158">
+        <v>5.1117233035644159E-5</v>
+      </c>
+      <c r="AC158">
+        <v>3</v>
+      </c>
+      <c r="AD158">
+        <v>2</v>
+      </c>
+      <c r="AE158" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B159">
         <v>2018</v>
@@ -10884,10 +15612,34 @@
       <c r="Q159">
         <v>69.010000000000005</v>
       </c>
-    </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W159">
+        <v>23.913333333333341</v>
+      </c>
+      <c r="X159">
+        <v>22.72666666666667</v>
+      </c>
+      <c r="AA159">
+        <v>5.1251870073445692E-5</v>
+      </c>
+      <c r="AB159">
+        <v>5.1117233035644159E-5</v>
+      </c>
+      <c r="AC159">
+        <v>3</v>
+      </c>
+      <c r="AD159">
+        <v>2</v>
+      </c>
+      <c r="AE159" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B160">
         <v>2017</v>
@@ -10933,6 +15685,30 @@
       </c>
       <c r="Q160">
         <v>69.36</v>
+      </c>
+      <c r="W160">
+        <v>23.913333333333341</v>
+      </c>
+      <c r="X160">
+        <v>22.72666666666667</v>
+      </c>
+      <c r="AA160">
+        <v>5.3001106131198078E-5</v>
+      </c>
+      <c r="AB160">
+        <v>5.1117233035644159E-5</v>
+      </c>
+      <c r="AC160">
+        <v>3</v>
+      </c>
+      <c r="AD160">
+        <v>2</v>
+      </c>
+      <c r="AE160" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF160">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
